--- a/results/comparisons/missing-values-impact/mv-4Folds.xlsx
+++ b/results/comparisons/missing-values-impact/mv-4Folds.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="480" windowWidth="21300" windowHeight="18400" tabRatio="500"/>
+    <workbookView xWindow="4100" yWindow="660" windowWidth="50440" windowHeight="26060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -573,6 +576,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -588,77 +597,1529 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="59">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Rank with missing values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil1!$A$7:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>Bagging NBTree</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RotationForest J48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Model Tree</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bagging J48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bagging JRip</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bagging PART</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MultiboostAB NBTree</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RotationForest RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MultiboostAB, Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NBTree</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>MultiboostAB, PART</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AdaboostM1, J48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Alternating Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Bagging Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>DTNB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>MultiboostAB J48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Random Subspaces of RepTree</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Bagging LWL</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Decision Table</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>JRip</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>RandomComittee RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>OrdinalClassClassifier J48</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>PART</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Bagging Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Bagging RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>MultiboostAB, Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Ridor</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Bagging RepTree</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>LogitBoost Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>LWL</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>MultiboostAB, RepTree</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>AdaboostM1, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>IBk</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Rep Tree</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>IB1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>MultiboostAB DecisionStump</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>MultiboostAB, RandomTree</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Bagging Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Conjunctive Rule</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>VFI</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Decorate</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Raced Incremental Logit Boost, Decision Stumps</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Random Tree</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>OneR</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Bagging OneR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$7:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Rank without missing values</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$G$7:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="49"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2096530200"/>
+        <c:axId val="-2092306296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2096530200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2092306296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2092306296"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:min val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096530200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>618068</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Avg"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Bagging J48</v>
+          </cell>
+          <cell r="B7">
+            <v>1</v>
+          </cell>
+          <cell r="C7">
+            <v>0.73502307761155805</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>0.73798964760132302</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Bagging NBTree</v>
+          </cell>
+          <cell r="B8">
+            <v>1</v>
+          </cell>
+          <cell r="C8">
+            <v>0.73760257056885203</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>0.74118797196257102</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>RotationForest J48</v>
+          </cell>
+          <cell r="B9">
+            <v>1</v>
+          </cell>
+          <cell r="C9">
+            <v>0.73878477611079696</v>
+          </cell>
+          <cell r="G9">
+            <v>1</v>
+          </cell>
+          <cell r="H9">
+            <v>0.741422516274584</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Logistic Model Tree</v>
+          </cell>
+          <cell r="B10">
+            <v>3</v>
+          </cell>
+          <cell r="C10">
+            <v>0.72934868742449399</v>
+          </cell>
+          <cell r="G10">
+            <v>2</v>
+          </cell>
+          <cell r="H10">
+            <v>0.73325870371892699</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>MultiboostAB, PART</v>
+          </cell>
+          <cell r="B11">
+            <v>1</v>
+          </cell>
+          <cell r="C11">
+            <v>0.73835289645493496</v>
+          </cell>
+          <cell r="G11">
+            <v>2</v>
+          </cell>
+          <cell r="H11">
+            <v>0.73595202153204897</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Bagging PART</v>
+          </cell>
+          <cell r="B12">
+            <v>1</v>
+          </cell>
+          <cell r="C12">
+            <v>0.73686497242424998</v>
+          </cell>
+          <cell r="G12">
+            <v>3</v>
+          </cell>
+          <cell r="H12">
+            <v>0.73168253825640805</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Alternating Decision Tree</v>
+          </cell>
+          <cell r="B13">
+            <v>2</v>
+          </cell>
+          <cell r="C13">
+            <v>0.73094213294533605</v>
+          </cell>
+          <cell r="G13">
+            <v>4</v>
+          </cell>
+          <cell r="H13">
+            <v>0.73030865254002797</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>MultiboostAB J48</v>
+          </cell>
+          <cell r="B14">
+            <v>4</v>
+          </cell>
+          <cell r="C14">
+            <v>0.72534401089167999</v>
+          </cell>
+          <cell r="G14">
+            <v>4</v>
+          </cell>
+          <cell r="H14">
+            <v>0.73038187444598501</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>RotationForest RandomTree</v>
+          </cell>
+          <cell r="B15">
+            <v>3</v>
+          </cell>
+          <cell r="C15">
+            <v>0.73083182907973399</v>
+          </cell>
+          <cell r="G15">
+            <v>4</v>
+          </cell>
+          <cell r="H15">
+            <v>0.72847776811722498</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>AdaboostM1, J48</v>
+          </cell>
+          <cell r="B16">
+            <v>6</v>
+          </cell>
+          <cell r="C16">
+            <v>0.71896986129770002</v>
+          </cell>
+          <cell r="G16">
+            <v>5</v>
+          </cell>
+          <cell r="H16">
+            <v>0.72649151155886604</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Bagging JRip</v>
+          </cell>
+          <cell r="B17">
+            <v>3</v>
+          </cell>
+          <cell r="C17">
+            <v>0.72765769558955695</v>
+          </cell>
+          <cell r="G17">
+            <v>5</v>
+          </cell>
+          <cell r="H17">
+            <v>0.72054087755899499</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>DTNB</v>
+          </cell>
+          <cell r="B18">
+            <v>5</v>
+          </cell>
+          <cell r="C18">
+            <v>0.71991317689013301</v>
+          </cell>
+          <cell r="G18">
+            <v>5</v>
+          </cell>
+          <cell r="H18">
+            <v>0.72365359454441602</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>J48</v>
+          </cell>
+          <cell r="B19">
+            <v>5</v>
+          </cell>
+          <cell r="C19">
+            <v>0.71993950759136505</v>
+          </cell>
+          <cell r="G19">
+            <v>5</v>
+          </cell>
+          <cell r="H19">
+            <v>0.72528484824633599</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>MultiboostAB NBTree</v>
+          </cell>
+          <cell r="B20">
+            <v>2</v>
+          </cell>
+          <cell r="C20">
+            <v>0.73218686970518598</v>
+          </cell>
+          <cell r="G20">
+            <v>5</v>
+          </cell>
+          <cell r="H20">
+            <v>0.72064932097740297</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>MultiboostAB, Decision Table</v>
+          </cell>
+          <cell r="B21">
+            <v>4</v>
+          </cell>
+          <cell r="C21">
+            <v>0.72468899044202395</v>
+          </cell>
+          <cell r="G21">
+            <v>5</v>
+          </cell>
+          <cell r="H21">
+            <v>0.72336548030832004</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>OrdinalClassClassifier J48</v>
+          </cell>
+          <cell r="B22">
+            <v>5</v>
+          </cell>
+          <cell r="C22">
+            <v>0.71897024821228706</v>
+          </cell>
+          <cell r="G22">
+            <v>5</v>
+          </cell>
+          <cell r="H22">
+            <v>0.72063184729495</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Random Forest</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+          <cell r="C23">
+            <v>0.71600438699483804</v>
+          </cell>
+          <cell r="G23">
+            <v>5</v>
+          </cell>
+          <cell r="H23">
+            <v>0.72159855896740399</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Bagging Decision Table</v>
+          </cell>
+          <cell r="B24">
+            <v>7</v>
+          </cell>
+          <cell r="C24">
+            <v>0.71070782586662395</v>
+          </cell>
+          <cell r="G24">
+            <v>6</v>
+          </cell>
+          <cell r="H24">
+            <v>0.71539421442975504</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Bagging RandomTree</v>
+          </cell>
+          <cell r="B25">
+            <v>7</v>
+          </cell>
+          <cell r="C25">
+            <v>0.71226486927663302</v>
+          </cell>
+          <cell r="G25">
+            <v>6</v>
+          </cell>
+          <cell r="H25">
+            <v>0.71794114778991303</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>JRip</v>
+          </cell>
+          <cell r="B26">
+            <v>7</v>
+          </cell>
+          <cell r="C26">
+            <v>0.71190600527921799</v>
+          </cell>
+          <cell r="G26">
+            <v>6</v>
+          </cell>
+          <cell r="H26">
+            <v>0.71723595961781605</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>PART</v>
+          </cell>
+          <cell r="B27">
+            <v>5</v>
+          </cell>
+          <cell r="C27">
+            <v>0.72184797383867205</v>
+          </cell>
+          <cell r="G27">
+            <v>6</v>
+          </cell>
+          <cell r="H27">
+            <v>0.71625769030671904</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>RandomComittee RandomTree</v>
+          </cell>
+          <cell r="B28">
+            <v>7</v>
+          </cell>
+          <cell r="C28">
+            <v>0.70617241608849601</v>
+          </cell>
+          <cell r="G28">
+            <v>7</v>
+          </cell>
+          <cell r="H28">
+            <v>0.71494288833730602</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Bagging RepTree</v>
+          </cell>
+          <cell r="B29">
+            <v>8</v>
+          </cell>
+          <cell r="C29">
+            <v>0.69512389719921497</v>
+          </cell>
+          <cell r="G29">
+            <v>8</v>
+          </cell>
+          <cell r="H29">
+            <v>0.69697672413095801</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Decision Table</v>
+          </cell>
+          <cell r="B30">
+            <v>8</v>
+          </cell>
+          <cell r="C30">
+            <v>0.70434899736576095</v>
+          </cell>
+          <cell r="G30">
+            <v>8</v>
+          </cell>
+          <cell r="H30">
+            <v>0.70725091371218596</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>IBk</v>
+          </cell>
+          <cell r="B31">
+            <v>8</v>
+          </cell>
+          <cell r="C31">
+            <v>0.69718525842921797</v>
+          </cell>
+          <cell r="G31">
+            <v>8</v>
+          </cell>
+          <cell r="H31">
+            <v>0.70534795208958501</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>LogitBoost Decision Stump</v>
+          </cell>
+          <cell r="B32">
+            <v>7</v>
+          </cell>
+          <cell r="C32">
+            <v>0.70767053588309703</v>
+          </cell>
+          <cell r="G32">
+            <v>8</v>
+          </cell>
+          <cell r="H32">
+            <v>0.71010313788372104</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>NBTree</v>
+          </cell>
+          <cell r="B33">
+            <v>5</v>
+          </cell>
+          <cell r="C33">
+            <v>0.71900120348244601</v>
+          </cell>
+          <cell r="G33">
+            <v>8</v>
+          </cell>
+          <cell r="H33">
+            <v>0.71094312987572394</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Ridor</v>
+          </cell>
+          <cell r="B34">
+            <v>8</v>
+          </cell>
+          <cell r="C34">
+            <v>0.69859279195814095</v>
+          </cell>
+          <cell r="G34">
+            <v>8</v>
+          </cell>
+          <cell r="H34">
+            <v>0.70311939936248902</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Bagging LWL</v>
+          </cell>
+          <cell r="B35">
+            <v>9</v>
+          </cell>
+          <cell r="C35">
+            <v>0.69416766811519603</v>
+          </cell>
+          <cell r="G35">
+            <v>9</v>
+          </cell>
+          <cell r="H35">
+            <v>0.68889920352141798</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Bagging Naive Bayes</v>
+          </cell>
+          <cell r="B36">
+            <v>8</v>
+          </cell>
+          <cell r="C36">
+            <v>0.69590524930270603</v>
+          </cell>
+          <cell r="G36">
+            <v>9</v>
+          </cell>
+          <cell r="H36">
+            <v>0.69213313000211596</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>IB1</v>
+          </cell>
+          <cell r="B37">
+            <v>9</v>
+          </cell>
+          <cell r="C37">
+            <v>0.69118029655533597</v>
+          </cell>
+          <cell r="G37">
+            <v>9</v>
+          </cell>
+          <cell r="H37">
+            <v>0.69622956298807703</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>LWL</v>
+          </cell>
+          <cell r="B38">
+            <v>10</v>
+          </cell>
+          <cell r="C38">
+            <v>0.68204824201005998</v>
+          </cell>
+          <cell r="G38">
+            <v>9</v>
+          </cell>
+          <cell r="H38">
+            <v>0.68512991858755801</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>MultiboostAB, Naive Bayes</v>
+          </cell>
+          <cell r="B39">
+            <v>8</v>
+          </cell>
+          <cell r="C39">
+            <v>0.70137602647556496</v>
+          </cell>
+          <cell r="G39">
+            <v>9</v>
+          </cell>
+          <cell r="H39">
+            <v>0.69069386686037704</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Random Subspaces of RepTree</v>
+          </cell>
+          <cell r="B40">
+            <v>8</v>
+          </cell>
+          <cell r="C40">
+            <v>0.69913532728832095</v>
+          </cell>
+          <cell r="G40">
+            <v>9</v>
+          </cell>
+          <cell r="H40">
+            <v>0.69376937159780405</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>AdaboostM1, Decision Stumps</v>
+          </cell>
+          <cell r="B41">
+            <v>11</v>
+          </cell>
+          <cell r="C41">
+            <v>0.66636440862204105</v>
+          </cell>
+          <cell r="G41">
+            <v>10</v>
+          </cell>
+          <cell r="H41">
+            <v>0.66370959741528401</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>Bagging Decision Stump</v>
+          </cell>
+          <cell r="B42">
+            <v>11</v>
+          </cell>
+          <cell r="C42">
+            <v>0.67372371402938402</v>
+          </cell>
+          <cell r="G42">
+            <v>10</v>
+          </cell>
+          <cell r="H42">
+            <v>0.668599288458396</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>Decision Stump</v>
+          </cell>
+          <cell r="B43">
+            <v>12</v>
+          </cell>
+          <cell r="C43">
+            <v>0.66200681553223395</v>
+          </cell>
+          <cell r="G43">
+            <v>10</v>
+          </cell>
+          <cell r="H43">
+            <v>0.66618381420842798</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>MultiboostAB DecisionStump</v>
+          </cell>
+          <cell r="B44">
+            <v>11</v>
+          </cell>
+          <cell r="C44">
+            <v>0.667805213497076</v>
+          </cell>
+          <cell r="G44">
+            <v>10</v>
+          </cell>
+          <cell r="H44">
+            <v>0.66790984097337902</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>MultiboostAB, RandomTree</v>
+          </cell>
+          <cell r="B45">
+            <v>11</v>
+          </cell>
+          <cell r="C45">
+            <v>0.66934138711865099</v>
+          </cell>
+          <cell r="G45">
+            <v>10</v>
+          </cell>
+          <cell r="H45">
+            <v>0.67347775748954997</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>MultiboostAB, RepTree</v>
+          </cell>
+          <cell r="B46">
+            <v>10</v>
+          </cell>
+          <cell r="C46">
+            <v>0.67377296382864604</v>
+          </cell>
+          <cell r="G46">
+            <v>10</v>
+          </cell>
+          <cell r="H46">
+            <v>0.67171934197724004</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>Naive Bayes</v>
+          </cell>
+          <cell r="B47">
+            <v>9</v>
+          </cell>
+          <cell r="C47">
+            <v>0.69108745347202505</v>
+          </cell>
+          <cell r="G47">
+            <v>10</v>
+          </cell>
+          <cell r="H47">
+            <v>0.68173473681809604</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>Rep Tree</v>
+          </cell>
+          <cell r="B48">
+            <v>11</v>
+          </cell>
+          <cell r="C48">
+            <v>0.66742353454789305</v>
+          </cell>
+          <cell r="G48">
+            <v>10</v>
+          </cell>
+          <cell r="H48">
+            <v>0.66386578867135804</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>Conjunctive Rule</v>
+          </cell>
+          <cell r="B49">
+            <v>12</v>
+          </cell>
+          <cell r="C49">
+            <v>0.650194750197579</v>
+          </cell>
+          <cell r="G49">
+            <v>11</v>
+          </cell>
+          <cell r="H49">
+            <v>0.65514173966282996</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>Decorate</v>
+          </cell>
+          <cell r="B50">
+            <v>12</v>
+          </cell>
+          <cell r="C50">
+            <v>0.62559366050127196</v>
+          </cell>
+          <cell r="G50">
+            <v>12</v>
+          </cell>
+          <cell r="H50">
+            <v>0.62296128895176195</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>VFI</v>
+          </cell>
+          <cell r="B51">
+            <v>12</v>
+          </cell>
+          <cell r="C51">
+            <v>0.66163075512041003</v>
+          </cell>
+          <cell r="G51">
+            <v>12</v>
+          </cell>
+          <cell r="H51">
+            <v>0.65339275666812802</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>Random Tree</v>
+          </cell>
+          <cell r="B52">
+            <v>13</v>
+          </cell>
+          <cell r="C52">
+            <v>0.618739866469876</v>
+          </cell>
+          <cell r="G52">
+            <v>13</v>
+          </cell>
+          <cell r="H52">
+            <v>0.61533549953792899</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>Raced Incremental Logit Boost, Decision Stumps</v>
+          </cell>
+          <cell r="B53">
+            <v>14</v>
+          </cell>
+          <cell r="C53">
+            <v>0.59720299537563704</v>
+          </cell>
+          <cell r="G53">
+            <v>14</v>
+          </cell>
+          <cell r="H53">
+            <v>0.59710749270001995</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>OneR</v>
+          </cell>
+          <cell r="B54">
+            <v>15</v>
+          </cell>
+          <cell r="G54">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>Bagging OneR</v>
+          </cell>
+          <cell r="B55">
+            <v>16</v>
+          </cell>
+          <cell r="G55">
+            <v>16</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1183,11 +2644,11 @@
         <v>better without pp</v>
       </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="23">
+      <c r="N7" s="18">
         <f t="shared" ref="N7:N38" si="0">C7-H7</f>
         <v>9.2522429999999378E-3</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="19">
         <v>0</v>
       </c>
       <c r="P7" s="3"/>
@@ -1228,11 +2689,11 @@
         <v>better without pp</v>
       </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="25">
+      <c r="N8" s="20">
         <f t="shared" si="0"/>
         <v>3.9697800000000338E-3</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="21">
         <v>0</v>
       </c>
       <c r="P8" s="3"/>
@@ -1273,11 +2734,11 @@
         <v>better without pp</v>
       </c>
       <c r="M9" s="3"/>
-      <c r="N9" s="25">
+      <c r="N9" s="20">
         <f t="shared" si="0"/>
         <v>8.1512769999999568E-3</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="21">
         <v>0</v>
       </c>
       <c r="P9" s="3"/>
@@ -1318,11 +2779,11 @@
         <v>better without pp</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="25">
+      <c r="N10" s="20">
         <f t="shared" si="0"/>
         <v>4.9688500000000246E-3</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="21">
         <v>-1</v>
       </c>
       <c r="P10" s="3"/>
@@ -1363,11 +2824,11 @@
         <v>better without pp</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="25">
+      <c r="N11" s="20">
         <f t="shared" si="0"/>
         <v>6.8762529999999433E-3</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="21">
         <v>1</v>
       </c>
       <c r="P11" s="3"/>
@@ -1408,11 +2869,11 @@
         <v>better without pp</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="25">
+      <c r="N12" s="20">
         <f t="shared" si="0"/>
         <v>5.0394219999999601E-3</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="21">
         <v>2</v>
       </c>
       <c r="P12" s="3"/>
@@ -1453,11 +2914,11 @@
         <v>better without pp</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="25">
+      <c r="N13" s="20">
         <f t="shared" si="0"/>
         <v>8.9208399999999299E-3</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="21">
         <v>2</v>
       </c>
       <c r="P13" s="3"/>
@@ -1498,11 +2959,11 @@
         <v>better without pp</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="25">
+      <c r="N14" s="20">
         <f t="shared" si="0"/>
         <v>1.8721200000000326E-3</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="21">
         <v>0</v>
       </c>
       <c r="P14" s="3"/>
@@ -1543,11 +3004,11 @@
         <v>better with pp</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="25">
+      <c r="N15" s="20">
         <f t="shared" si="0"/>
         <v>-5.0776999999999628E-3</v>
       </c>
-      <c r="O15" s="26">
+      <c r="O15" s="21">
         <v>1</v>
       </c>
       <c r="P15" s="3"/>
@@ -1588,11 +3049,11 @@
         <f t="shared" si="2"/>
         <v>better without pp</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="20">
         <f t="shared" si="0"/>
         <v>3.7132680000000473E-3</v>
       </c>
-      <c r="O16" s="26">
+      <c r="O16" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -1632,11 +3093,11 @@
         <v>better without pp</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="25">
+      <c r="N17" s="20">
         <f t="shared" si="0"/>
         <v>9.1145040000000233E-3</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="21">
         <v>2</v>
       </c>
       <c r="P17" s="3"/>
@@ -1677,11 +3138,11 @@
         <v>better with pp</v>
       </c>
       <c r="M18" s="3"/>
-      <c r="N18" s="25">
+      <c r="N18" s="20">
         <f t="shared" si="0"/>
         <v>-6.5230320000000397E-3</v>
       </c>
-      <c r="O18" s="26">
+      <c r="O18" s="21">
         <v>0</v>
       </c>
       <c r="P18" s="3"/>
@@ -1721,11 +3182,11 @@
         <f t="shared" si="2"/>
         <v>better with pp</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="20">
         <f t="shared" si="0"/>
         <v>-4.0642400000001633E-4</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="21">
         <v>0</v>
       </c>
     </row>
@@ -1764,11 +3225,11 @@
         <f t="shared" si="2"/>
         <v>better with pp</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="20">
         <f t="shared" si="0"/>
         <v>-1.4567650000000265E-3</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="21">
         <v>3</v>
       </c>
     </row>
@@ -1808,11 +3269,11 @@
         <v>better with pp</v>
       </c>
       <c r="M21" s="3"/>
-      <c r="N21" s="25">
+      <c r="N21" s="20">
         <f t="shared" si="0"/>
         <v>-3.1871900000002285E-4</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="21">
         <v>1</v>
       </c>
       <c r="P21" s="3"/>
@@ -1853,11 +3314,11 @@
         <v>better without pp</v>
       </c>
       <c r="M22" s="3"/>
-      <c r="N22" s="25">
+      <c r="N22" s="20">
         <f t="shared" si="0"/>
         <v>2.735818000000001E-3</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="21">
         <v>0</v>
       </c>
       <c r="P22" s="3"/>
@@ -1898,11 +3359,11 @@
         <v>better without pp</v>
       </c>
       <c r="M23" s="3"/>
-      <c r="N23" s="25">
+      <c r="N23" s="20">
         <f t="shared" si="0"/>
         <v>3.1744769999999534E-3</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="21">
         <v>-1</v>
       </c>
       <c r="P23" s="3"/>
@@ -1943,11 +3404,11 @@
         <v>better without pp</v>
       </c>
       <c r="M24" s="3"/>
-      <c r="N24" s="25">
+      <c r="N24" s="20">
         <f t="shared" si="0"/>
         <v>2.7333729999999834E-3</v>
       </c>
-      <c r="O24" s="26">
+      <c r="O24" s="21">
         <v>-1</v>
       </c>
       <c r="P24" s="3"/>
@@ -1988,11 +3449,11 @@
         <v>better without pp</v>
       </c>
       <c r="M25" s="3"/>
-      <c r="N25" s="25">
+      <c r="N25" s="20">
         <f t="shared" si="0"/>
         <v>1.2750499999999443E-3</v>
       </c>
-      <c r="O25" s="26">
+      <c r="O25" s="21">
         <v>-1</v>
       </c>
       <c r="P25" s="3"/>
@@ -2033,11 +3494,11 @@
         <v>better with pp</v>
       </c>
       <c r="M26" s="3"/>
-      <c r="N26" s="25">
+      <c r="N26" s="20">
         <f t="shared" si="0"/>
         <v>-1.6813399999993095E-4</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="21">
         <v>-1</v>
       </c>
       <c r="P26" s="3"/>
@@ -2078,11 +3539,11 @@
         <v>better without pp</v>
       </c>
       <c r="M27" s="3"/>
-      <c r="N27" s="25">
+      <c r="N27" s="20">
         <f t="shared" si="0"/>
         <v>6.3840800000003473E-4</v>
       </c>
-      <c r="O27" s="26">
+      <c r="O27" s="21">
         <v>1</v>
       </c>
       <c r="P27" s="3"/>
@@ -2123,11 +3584,11 @@
         <v>better with pp</v>
       </c>
       <c r="M28" s="3"/>
-      <c r="N28" s="25">
+      <c r="N28" s="20">
         <f t="shared" si="0"/>
         <v>-3.8468459999999594E-3</v>
       </c>
-      <c r="O28" s="26">
+      <c r="O28" s="21">
         <v>0</v>
       </c>
       <c r="P28" s="3"/>
@@ -2168,11 +3629,11 @@
         <v>better with pp</v>
       </c>
       <c r="M29" s="3"/>
-      <c r="N29" s="25">
+      <c r="N29" s="20">
         <f t="shared" si="0"/>
         <v>-1.4415347999999994E-2</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="21">
         <v>0</v>
       </c>
       <c r="P29" s="3"/>
@@ -2213,11 +3674,11 @@
         <v>better without pp</v>
       </c>
       <c r="M30" s="3"/>
-      <c r="N30" s="25">
+      <c r="N30" s="20">
         <f t="shared" si="0"/>
         <v>4.5212330000000689E-3</v>
       </c>
-      <c r="O30" s="26">
+      <c r="O30" s="21">
         <v>0</v>
       </c>
       <c r="P30" s="3"/>
@@ -2258,11 +3719,11 @@
         <v>better without pp</v>
       </c>
       <c r="M31" s="3"/>
-      <c r="N31" s="25">
+      <c r="N31" s="20">
         <f t="shared" si="0"/>
         <v>5.2342220000000106E-3</v>
       </c>
-      <c r="O31" s="26">
+      <c r="O31" s="21">
         <v>0</v>
       </c>
       <c r="P31" s="3"/>
@@ -2303,11 +3764,11 @@
         <v>better without pp</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="25">
+      <c r="N32" s="20">
         <f t="shared" si="0"/>
         <v>7.4129520000000282E-3</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="21">
         <v>1</v>
       </c>
       <c r="P32" s="3"/>
@@ -2348,11 +3809,11 @@
         <v>better without pp</v>
       </c>
       <c r="M33" s="3"/>
-      <c r="N33" s="25">
+      <c r="N33" s="20">
         <f t="shared" si="0"/>
         <v>1.1041155000000025E-2</v>
       </c>
-      <c r="O33" s="26">
+      <c r="O33" s="21">
         <v>3</v>
       </c>
       <c r="P33" s="3"/>
@@ -2393,11 +3854,11 @@
         <v>better without pp</v>
       </c>
       <c r="M34" s="3"/>
-      <c r="N34" s="25">
+      <c r="N34" s="20">
         <f t="shared" si="0"/>
         <v>9.2494619999999861E-3</v>
       </c>
-      <c r="O34" s="26">
+      <c r="O34" s="21">
         <v>0</v>
       </c>
       <c r="P34" s="3"/>
@@ -2438,11 +3899,11 @@
         <v>better with pp</v>
       </c>
       <c r="M35" s="3"/>
-      <c r="N35" s="25">
+      <c r="N35" s="20">
         <f t="shared" si="0"/>
         <v>-2.4797930000000079E-3</v>
       </c>
-      <c r="O35" s="26">
+      <c r="O35" s="21">
         <v>0</v>
       </c>
       <c r="P35" s="3"/>
@@ -2483,11 +3944,11 @@
         <v>better without pp</v>
       </c>
       <c r="M36" s="3"/>
-      <c r="N36" s="25">
+      <c r="N36" s="20">
         <f t="shared" si="0"/>
         <v>1.4756799999993131E-4</v>
       </c>
-      <c r="O36" s="26">
+      <c r="O36" s="21">
         <v>1</v>
       </c>
       <c r="P36" s="3"/>
@@ -2528,11 +3989,11 @@
         <v>better without pp</v>
       </c>
       <c r="M37" s="3"/>
-      <c r="N37" s="25">
+      <c r="N37" s="20">
         <f t="shared" si="0"/>
         <v>4.9516799999993477E-4</v>
       </c>
-      <c r="O37" s="26">
+      <c r="O37" s="21">
         <v>0</v>
       </c>
       <c r="P37" s="3"/>
@@ -2573,11 +4034,11 @@
         <v>better without pp</v>
       </c>
       <c r="M38" s="3"/>
-      <c r="N38" s="25">
+      <c r="N38" s="20">
         <f t="shared" si="0"/>
         <v>2.7325369999999793E-3</v>
       </c>
-      <c r="O38" s="26">
+      <c r="O38" s="21">
         <v>-1</v>
       </c>
       <c r="P38" s="3"/>
@@ -2618,11 +4079,11 @@
         <v>better with pp</v>
       </c>
       <c r="M39" s="3"/>
-      <c r="N39" s="25">
+      <c r="N39" s="20">
         <f t="shared" ref="N39:N55" si="3">C39-H39</f>
         <v>-5.0295299999991716E-4</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O39" s="21">
         <v>1</v>
       </c>
       <c r="P39" s="3"/>
@@ -2663,11 +4124,11 @@
         <v>better without pp</v>
       </c>
       <c r="M40" s="3"/>
-      <c r="N40" s="25">
+      <c r="N40" s="20">
         <f t="shared" si="3"/>
         <v>8.3568309999999535E-3</v>
       </c>
-      <c r="O40" s="26">
+      <c r="O40" s="21">
         <v>1</v>
       </c>
       <c r="P40" s="3"/>
@@ -2708,11 +4169,11 @@
         <v>better without pp</v>
       </c>
       <c r="M41" s="3"/>
-      <c r="N41" s="25">
+      <c r="N41" s="20">
         <f t="shared" si="3"/>
         <v>9.8916350000000097E-3</v>
       </c>
-      <c r="O41" s="26">
+      <c r="O41" s="21">
         <v>-1</v>
       </c>
       <c r="P41" s="3"/>
@@ -2753,11 +4214,11 @@
         <v>better with pp</v>
       </c>
       <c r="M42" s="3"/>
-      <c r="N42" s="25">
+      <c r="N42" s="20">
         <f t="shared" si="3"/>
         <v>-5.9036869999999908E-3</v>
       </c>
-      <c r="O42" s="26">
+      <c r="O42" s="21">
         <v>-1</v>
       </c>
       <c r="P42" s="3"/>
@@ -2798,11 +4259,11 @@
         <v>better without pp</v>
       </c>
       <c r="M43" s="10"/>
-      <c r="N43" s="25">
+      <c r="N43" s="20">
         <f t="shared" si="3"/>
         <v>2.1946179999999815E-3</v>
       </c>
-      <c r="O43" s="26">
+      <c r="O43" s="21">
         <v>-2</v>
       </c>
       <c r="P43" s="10"/>
@@ -2843,11 +4304,11 @@
         <v>better without pp</v>
       </c>
       <c r="M44" s="10"/>
-      <c r="N44" s="25">
+      <c r="N44" s="20">
         <f t="shared" si="3"/>
         <v>5.4082650000000232E-3</v>
       </c>
-      <c r="O44" s="26">
+      <c r="O44" s="21">
         <v>-1</v>
       </c>
       <c r="P44" s="10"/>
@@ -2888,11 +4349,11 @@
         <v>better without pp</v>
       </c>
       <c r="M45" s="10"/>
-      <c r="N45" s="25">
+      <c r="N45" s="20">
         <f t="shared" si="3"/>
         <v>6.8786570000000102E-3</v>
       </c>
-      <c r="O45" s="26">
+      <c r="O45" s="21">
         <v>-1</v>
       </c>
       <c r="P45" s="10"/>
@@ -2933,11 +4394,11 @@
         <v>better without pp</v>
       </c>
       <c r="M46" s="3"/>
-      <c r="N46" s="25">
+      <c r="N46" s="20">
         <f t="shared" si="3"/>
         <v>1.5108736000000067E-2</v>
       </c>
-      <c r="O46" s="26">
+      <c r="O46" s="21">
         <v>0</v>
       </c>
       <c r="P46" s="3"/>
@@ -2978,11 +4439,11 @@
         <v>better without pp</v>
       </c>
       <c r="M47" s="3"/>
-      <c r="N47" s="25">
+      <c r="N47" s="20">
         <f t="shared" si="3"/>
         <v>8.3392200000000916E-3</v>
       </c>
-      <c r="O47" s="26">
+      <c r="O47" s="21">
         <v>1</v>
       </c>
       <c r="P47" s="3"/>
@@ -3023,11 +4484,11 @@
         <v>better without pp</v>
       </c>
       <c r="M48" s="3"/>
-      <c r="N48" s="25">
+      <c r="N48" s="20">
         <f t="shared" si="3"/>
         <v>5.8826390000000783E-3</v>
       </c>
-      <c r="O48" s="26">
+      <c r="O48" s="21">
         <v>-1</v>
       </c>
       <c r="P48" s="3"/>
@@ -3068,11 +4529,11 @@
         <v>better without pp</v>
       </c>
       <c r="M49" s="3"/>
-      <c r="N49" s="25">
+      <c r="N49" s="20">
         <f t="shared" si="3"/>
         <v>4.2437960000000219E-3</v>
       </c>
-      <c r="O49" s="26">
+      <c r="O49" s="21">
         <v>-1</v>
       </c>
       <c r="P49" s="3"/>
@@ -3113,11 +4574,11 @@
         <v>better without pp</v>
       </c>
       <c r="M50" s="3"/>
-      <c r="N50" s="25">
+      <c r="N50" s="20">
         <f t="shared" si="3"/>
         <v>6.6248449999999348E-3</v>
       </c>
-      <c r="O50" s="26">
+      <c r="O50" s="21">
         <v>0</v>
       </c>
       <c r="P50" s="3"/>
@@ -3158,11 +4619,11 @@
         <v>better with pp</v>
       </c>
       <c r="M51" s="3"/>
-      <c r="N51" s="25">
+      <c r="N51" s="20">
         <f t="shared" si="3"/>
         <v>-4.408960999999989E-3</v>
       </c>
-      <c r="O51" s="26">
+      <c r="O51" s="21">
         <v>0</v>
       </c>
       <c r="P51" s="3"/>
@@ -3203,11 +4664,11 @@
         <v>better with pp</v>
       </c>
       <c r="M52" s="3"/>
-      <c r="N52" s="25">
+      <c r="N52" s="20">
         <f t="shared" si="3"/>
         <v>-5.6597000000047082E-5</v>
       </c>
-      <c r="O52" s="26">
+      <c r="O52" s="21">
         <v>0</v>
       </c>
       <c r="P52" s="3"/>
@@ -3248,11 +4709,11 @@
         <v>better without pp</v>
       </c>
       <c r="M53" s="3"/>
-      <c r="N53" s="25">
+      <c r="N53" s="20">
         <f t="shared" si="3"/>
         <v>6.1828399999996897E-4</v>
       </c>
-      <c r="O53" s="26">
+      <c r="O53" s="21">
         <v>0</v>
       </c>
       <c r="P53" s="3"/>
@@ -3293,11 +4754,11 @@
         <v>better with pp</v>
       </c>
       <c r="M54" s="3"/>
-      <c r="N54" s="25">
+      <c r="N54" s="20">
         <f t="shared" si="3"/>
         <v>-7.1138199999998264E-4</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="21">
         <v>0</v>
       </c>
       <c r="P54" s="3"/>
@@ -3337,11 +4798,11 @@
         <f t="shared" si="2"/>
         <v>better with pp</v>
       </c>
-      <c r="N55" s="27">
+      <c r="N55" s="22">
         <f t="shared" si="3"/>
         <v>-1.168699000000023E-3</v>
       </c>
-      <c r="O55" s="28">
+      <c r="O55" s="23">
         <v>0</v>
       </c>
     </row>
@@ -3399,14 +4860,14 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="14"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="25"/>
+      <c r="D59" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="25"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
@@ -3414,16 +4875,16 @@
       <c r="A60" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="27">
         <f>COUNTIF($K$7:$K$55,$A60)</f>
         <v>14</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21">
+      <c r="C60" s="28"/>
+      <c r="D60" s="27">
         <f>COUNTIF($L$7:$L$55,$A60)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="28"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
@@ -3431,16 +4892,16 @@
       <c r="A61" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="27">
         <f>COUNTIF($K$7:$K$55,$A61)</f>
         <v>7</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21">
+      <c r="C61" s="28"/>
+      <c r="D61" s="27">
         <f>COUNTIF($L$7:$L$55,$A61)</f>
         <v>15</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="28"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
@@ -3448,16 +4909,16 @@
       <c r="A62" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="27">
         <f>COUNTIF($K$7:$K$55,$A62)</f>
         <v>28</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21">
+      <c r="C62" s="28"/>
+      <c r="D62" s="27">
         <f>COUNTIF($L$7:$L$55,$A62)</f>
         <v>34</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="28"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
@@ -16216,6 +17677,7 @@
     <mergeCell ref="D62:E62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/comparisons/missing-values-impact/mv-4Folds.xlsx
+++ b/results/comparisons/missing-values-impact/mv-4Folds.xlsx
@@ -1,17 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27426"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="660" windowWidth="50440" windowHeight="26060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Algorithm</t>
   </si>
@@ -229,16 +226,7 @@
     <t>Average</t>
   </si>
   <si>
-    <t>rank Comparison</t>
-  </si>
-  <si>
     <t>Accuracy Comparison</t>
-  </si>
-  <si>
-    <t>without</t>
-  </si>
-  <si>
-    <t>with</t>
   </si>
   <si>
     <t>same</t>
@@ -254,6 +242,21 @@
   </si>
   <si>
     <t>accuracy difference</t>
+  </si>
+  <si>
+    <t>Rank Comparison</t>
+  </si>
+  <si>
+    <t>avg loss</t>
+  </si>
+  <si>
+    <t>avg gain</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>rank ordered as in left table</t>
   </si>
 </sst>
 </file>
@@ -339,7 +342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -432,59 +435,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,8 +496,218 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,12 +738,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,66 +753,278 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="59">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+  <cellStyles count="269">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -667,7 +1035,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -688,7 +1056,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Rank with missing values</c:v>
+            <c:v>Rank without missing values pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -715,106 +1083,106 @@
                   <c:v>Logistic Model Tree</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Bagging JRip</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MultiboostAB NBTree</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Bagging J48</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>Bagging JRip</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Bagging PART</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MultiboostAB NBTree</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Random Forest</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>NBTree</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>RotationForest RandomTree</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>MultiboostAB, Decision Table</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>NBTree</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>MultiboostAB, PART</c:v>
+                  <c:v>Bagging Decision Table</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>DTNB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MultiboostAB J48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Alternating Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>AdaboostM1, J48</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>Alternating Decision Tree</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Bagging Decision Table</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>DTNB</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>MultiboostAB J48</c:v>
+                  <c:v>MultiboostAB, PART</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>Random Subspaces of RepTree</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>J48</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>Bagging LWL</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>Decision Table</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>J48</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>JRip</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>OrdinalClassClassifier J48</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>PART</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>RandomComittee RandomTree</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>OrdinalClassClassifier J48</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>PART</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>Bagging Naive Bayes</c:v>
+                  <c:v>MultiboostAB, Naive Bayes</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>Bagging RandomTree</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>MultiboostAB, Naive Bayes</c:v>
+                  <c:v>Bagging Naive Bayes</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>LogitBoost Decision Stump</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Naive Bayes</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>Ridor</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>Bagging RepTree</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>LogitBoost Decision Stump</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>LWL</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>MultiboostAB, RepTree</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>AdaboostM1, Decision Stumps</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>Naive Bayes</c:v>
-                </c:pt>
                 <c:pt idx="35">
-                  <c:v>IBk</c:v>
+                  <c:v>Rep Tree</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Rep Tree</c:v>
+                  <c:v>IBk</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>IB1</c:v>
@@ -838,13 +1206,13 @@
                   <c:v>VFI</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>Decorate</c:v>
+                  <c:v>Random Tree</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>Raced Incremental Logit Boost, Decision Stumps</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>Random Tree</c:v>
+                  <c:v>Decorate</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>OneR</c:v>
@@ -1017,7 +1385,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Rank without missing values</c:v>
+            <c:v>Rank with missing values pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:ln>
@@ -1031,7 +1399,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$G$7:$G$55</c:f>
+              <c:f>Feuil1!$P$7:$P$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -1045,13 +1413,13 @@
                   <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.0</c:v>
@@ -1060,16 +1428,16 @@
                   <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>4.0</c:v>
@@ -1084,7 +1452,7 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>5.0</c:v>
@@ -1102,13 +1470,13 @@
                   <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>7.0</c:v>
@@ -1120,13 +1488,13 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>7.0</c:v>
@@ -1135,16 +1503,16 @@
                   <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>8.0</c:v>
@@ -1197,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096530200"/>
-        <c:axId val="-2092306296"/>
+        <c:axId val="2105185144"/>
+        <c:axId val="2105188120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2096530200"/>
+        <c:axId val="2105185144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2092306296"/>
+        <c:crossAx val="2105188120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1218,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092306296"/>
+        <c:axId val="2105188120"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="1.0"/>
@@ -1230,14 +1598,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096530200"/>
+        <c:crossAx val="2105185144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.740361923995558"/>
+          <c:y val="0.443880455242061"/>
+          <c:w val="0.258169632040827"/>
+          <c:h val="0.0974614190676505"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1256,16 +1633,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>16931</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464458</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>618068</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>780143</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1285,841 +1662,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Avg"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Bagging J48</v>
-          </cell>
-          <cell r="B7">
-            <v>1</v>
-          </cell>
-          <cell r="C7">
-            <v>0.73502307761155805</v>
-          </cell>
-          <cell r="G7">
-            <v>1</v>
-          </cell>
-          <cell r="H7">
-            <v>0.73798964760132302</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Bagging NBTree</v>
-          </cell>
-          <cell r="B8">
-            <v>1</v>
-          </cell>
-          <cell r="C8">
-            <v>0.73760257056885203</v>
-          </cell>
-          <cell r="G8">
-            <v>1</v>
-          </cell>
-          <cell r="H8">
-            <v>0.74118797196257102</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>RotationForest J48</v>
-          </cell>
-          <cell r="B9">
-            <v>1</v>
-          </cell>
-          <cell r="C9">
-            <v>0.73878477611079696</v>
-          </cell>
-          <cell r="G9">
-            <v>1</v>
-          </cell>
-          <cell r="H9">
-            <v>0.741422516274584</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Logistic Model Tree</v>
-          </cell>
-          <cell r="B10">
-            <v>3</v>
-          </cell>
-          <cell r="C10">
-            <v>0.72934868742449399</v>
-          </cell>
-          <cell r="G10">
-            <v>2</v>
-          </cell>
-          <cell r="H10">
-            <v>0.73325870371892699</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>MultiboostAB, PART</v>
-          </cell>
-          <cell r="B11">
-            <v>1</v>
-          </cell>
-          <cell r="C11">
-            <v>0.73835289645493496</v>
-          </cell>
-          <cell r="G11">
-            <v>2</v>
-          </cell>
-          <cell r="H11">
-            <v>0.73595202153204897</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Bagging PART</v>
-          </cell>
-          <cell r="B12">
-            <v>1</v>
-          </cell>
-          <cell r="C12">
-            <v>0.73686497242424998</v>
-          </cell>
-          <cell r="G12">
-            <v>3</v>
-          </cell>
-          <cell r="H12">
-            <v>0.73168253825640805</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>Alternating Decision Tree</v>
-          </cell>
-          <cell r="B13">
-            <v>2</v>
-          </cell>
-          <cell r="C13">
-            <v>0.73094213294533605</v>
-          </cell>
-          <cell r="G13">
-            <v>4</v>
-          </cell>
-          <cell r="H13">
-            <v>0.73030865254002797</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>MultiboostAB J48</v>
-          </cell>
-          <cell r="B14">
-            <v>4</v>
-          </cell>
-          <cell r="C14">
-            <v>0.72534401089167999</v>
-          </cell>
-          <cell r="G14">
-            <v>4</v>
-          </cell>
-          <cell r="H14">
-            <v>0.73038187444598501</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>RotationForest RandomTree</v>
-          </cell>
-          <cell r="B15">
-            <v>3</v>
-          </cell>
-          <cell r="C15">
-            <v>0.73083182907973399</v>
-          </cell>
-          <cell r="G15">
-            <v>4</v>
-          </cell>
-          <cell r="H15">
-            <v>0.72847776811722498</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>AdaboostM1, J48</v>
-          </cell>
-          <cell r="B16">
-            <v>6</v>
-          </cell>
-          <cell r="C16">
-            <v>0.71896986129770002</v>
-          </cell>
-          <cell r="G16">
-            <v>5</v>
-          </cell>
-          <cell r="H16">
-            <v>0.72649151155886604</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Bagging JRip</v>
-          </cell>
-          <cell r="B17">
-            <v>3</v>
-          </cell>
-          <cell r="C17">
-            <v>0.72765769558955695</v>
-          </cell>
-          <cell r="G17">
-            <v>5</v>
-          </cell>
-          <cell r="H17">
-            <v>0.72054087755899499</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>DTNB</v>
-          </cell>
-          <cell r="B18">
-            <v>5</v>
-          </cell>
-          <cell r="C18">
-            <v>0.71991317689013301</v>
-          </cell>
-          <cell r="G18">
-            <v>5</v>
-          </cell>
-          <cell r="H18">
-            <v>0.72365359454441602</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>J48</v>
-          </cell>
-          <cell r="B19">
-            <v>5</v>
-          </cell>
-          <cell r="C19">
-            <v>0.71993950759136505</v>
-          </cell>
-          <cell r="G19">
-            <v>5</v>
-          </cell>
-          <cell r="H19">
-            <v>0.72528484824633599</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>MultiboostAB NBTree</v>
-          </cell>
-          <cell r="B20">
-            <v>2</v>
-          </cell>
-          <cell r="C20">
-            <v>0.73218686970518598</v>
-          </cell>
-          <cell r="G20">
-            <v>5</v>
-          </cell>
-          <cell r="H20">
-            <v>0.72064932097740297</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>MultiboostAB, Decision Table</v>
-          </cell>
-          <cell r="B21">
-            <v>4</v>
-          </cell>
-          <cell r="C21">
-            <v>0.72468899044202395</v>
-          </cell>
-          <cell r="G21">
-            <v>5</v>
-          </cell>
-          <cell r="H21">
-            <v>0.72336548030832004</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>OrdinalClassClassifier J48</v>
-          </cell>
-          <cell r="B22">
-            <v>5</v>
-          </cell>
-          <cell r="C22">
-            <v>0.71897024821228706</v>
-          </cell>
-          <cell r="G22">
-            <v>5</v>
-          </cell>
-          <cell r="H22">
-            <v>0.72063184729495</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>Random Forest</v>
-          </cell>
-          <cell r="B23">
-            <v>6</v>
-          </cell>
-          <cell r="C23">
-            <v>0.71600438699483804</v>
-          </cell>
-          <cell r="G23">
-            <v>5</v>
-          </cell>
-          <cell r="H23">
-            <v>0.72159855896740399</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Bagging Decision Table</v>
-          </cell>
-          <cell r="B24">
-            <v>7</v>
-          </cell>
-          <cell r="C24">
-            <v>0.71070782586662395</v>
-          </cell>
-          <cell r="G24">
-            <v>6</v>
-          </cell>
-          <cell r="H24">
-            <v>0.71539421442975504</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>Bagging RandomTree</v>
-          </cell>
-          <cell r="B25">
-            <v>7</v>
-          </cell>
-          <cell r="C25">
-            <v>0.71226486927663302</v>
-          </cell>
-          <cell r="G25">
-            <v>6</v>
-          </cell>
-          <cell r="H25">
-            <v>0.71794114778991303</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>JRip</v>
-          </cell>
-          <cell r="B26">
-            <v>7</v>
-          </cell>
-          <cell r="C26">
-            <v>0.71190600527921799</v>
-          </cell>
-          <cell r="G26">
-            <v>6</v>
-          </cell>
-          <cell r="H26">
-            <v>0.71723595961781605</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>PART</v>
-          </cell>
-          <cell r="B27">
-            <v>5</v>
-          </cell>
-          <cell r="C27">
-            <v>0.72184797383867205</v>
-          </cell>
-          <cell r="G27">
-            <v>6</v>
-          </cell>
-          <cell r="H27">
-            <v>0.71625769030671904</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>RandomComittee RandomTree</v>
-          </cell>
-          <cell r="B28">
-            <v>7</v>
-          </cell>
-          <cell r="C28">
-            <v>0.70617241608849601</v>
-          </cell>
-          <cell r="G28">
-            <v>7</v>
-          </cell>
-          <cell r="H28">
-            <v>0.71494288833730602</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Bagging RepTree</v>
-          </cell>
-          <cell r="B29">
-            <v>8</v>
-          </cell>
-          <cell r="C29">
-            <v>0.69512389719921497</v>
-          </cell>
-          <cell r="G29">
-            <v>8</v>
-          </cell>
-          <cell r="H29">
-            <v>0.69697672413095801</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Decision Table</v>
-          </cell>
-          <cell r="B30">
-            <v>8</v>
-          </cell>
-          <cell r="C30">
-            <v>0.70434899736576095</v>
-          </cell>
-          <cell r="G30">
-            <v>8</v>
-          </cell>
-          <cell r="H30">
-            <v>0.70725091371218596</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>IBk</v>
-          </cell>
-          <cell r="B31">
-            <v>8</v>
-          </cell>
-          <cell r="C31">
-            <v>0.69718525842921797</v>
-          </cell>
-          <cell r="G31">
-            <v>8</v>
-          </cell>
-          <cell r="H31">
-            <v>0.70534795208958501</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>LogitBoost Decision Stump</v>
-          </cell>
-          <cell r="B32">
-            <v>7</v>
-          </cell>
-          <cell r="C32">
-            <v>0.70767053588309703</v>
-          </cell>
-          <cell r="G32">
-            <v>8</v>
-          </cell>
-          <cell r="H32">
-            <v>0.71010313788372104</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>NBTree</v>
-          </cell>
-          <cell r="B33">
-            <v>5</v>
-          </cell>
-          <cell r="C33">
-            <v>0.71900120348244601</v>
-          </cell>
-          <cell r="G33">
-            <v>8</v>
-          </cell>
-          <cell r="H33">
-            <v>0.71094312987572394</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Ridor</v>
-          </cell>
-          <cell r="B34">
-            <v>8</v>
-          </cell>
-          <cell r="C34">
-            <v>0.69859279195814095</v>
-          </cell>
-          <cell r="G34">
-            <v>8</v>
-          </cell>
-          <cell r="H34">
-            <v>0.70311939936248902</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Bagging LWL</v>
-          </cell>
-          <cell r="B35">
-            <v>9</v>
-          </cell>
-          <cell r="C35">
-            <v>0.69416766811519603</v>
-          </cell>
-          <cell r="G35">
-            <v>9</v>
-          </cell>
-          <cell r="H35">
-            <v>0.68889920352141798</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Bagging Naive Bayes</v>
-          </cell>
-          <cell r="B36">
-            <v>8</v>
-          </cell>
-          <cell r="C36">
-            <v>0.69590524930270603</v>
-          </cell>
-          <cell r="G36">
-            <v>9</v>
-          </cell>
-          <cell r="H36">
-            <v>0.69213313000211596</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>IB1</v>
-          </cell>
-          <cell r="B37">
-            <v>9</v>
-          </cell>
-          <cell r="C37">
-            <v>0.69118029655533597</v>
-          </cell>
-          <cell r="G37">
-            <v>9</v>
-          </cell>
-          <cell r="H37">
-            <v>0.69622956298807703</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>LWL</v>
-          </cell>
-          <cell r="B38">
-            <v>10</v>
-          </cell>
-          <cell r="C38">
-            <v>0.68204824201005998</v>
-          </cell>
-          <cell r="G38">
-            <v>9</v>
-          </cell>
-          <cell r="H38">
-            <v>0.68512991858755801</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>MultiboostAB, Naive Bayes</v>
-          </cell>
-          <cell r="B39">
-            <v>8</v>
-          </cell>
-          <cell r="C39">
-            <v>0.70137602647556496</v>
-          </cell>
-          <cell r="G39">
-            <v>9</v>
-          </cell>
-          <cell r="H39">
-            <v>0.69069386686037704</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Random Subspaces of RepTree</v>
-          </cell>
-          <cell r="B40">
-            <v>8</v>
-          </cell>
-          <cell r="C40">
-            <v>0.69913532728832095</v>
-          </cell>
-          <cell r="G40">
-            <v>9</v>
-          </cell>
-          <cell r="H40">
-            <v>0.69376937159780405</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>AdaboostM1, Decision Stumps</v>
-          </cell>
-          <cell r="B41">
-            <v>11</v>
-          </cell>
-          <cell r="C41">
-            <v>0.66636440862204105</v>
-          </cell>
-          <cell r="G41">
-            <v>10</v>
-          </cell>
-          <cell r="H41">
-            <v>0.66370959741528401</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>Bagging Decision Stump</v>
-          </cell>
-          <cell r="B42">
-            <v>11</v>
-          </cell>
-          <cell r="C42">
-            <v>0.67372371402938402</v>
-          </cell>
-          <cell r="G42">
-            <v>10</v>
-          </cell>
-          <cell r="H42">
-            <v>0.668599288458396</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>Decision Stump</v>
-          </cell>
-          <cell r="B43">
-            <v>12</v>
-          </cell>
-          <cell r="C43">
-            <v>0.66200681553223395</v>
-          </cell>
-          <cell r="G43">
-            <v>10</v>
-          </cell>
-          <cell r="H43">
-            <v>0.66618381420842798</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>MultiboostAB DecisionStump</v>
-          </cell>
-          <cell r="B44">
-            <v>11</v>
-          </cell>
-          <cell r="C44">
-            <v>0.667805213497076</v>
-          </cell>
-          <cell r="G44">
-            <v>10</v>
-          </cell>
-          <cell r="H44">
-            <v>0.66790984097337902</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>MultiboostAB, RandomTree</v>
-          </cell>
-          <cell r="B45">
-            <v>11</v>
-          </cell>
-          <cell r="C45">
-            <v>0.66934138711865099</v>
-          </cell>
-          <cell r="G45">
-            <v>10</v>
-          </cell>
-          <cell r="H45">
-            <v>0.67347775748954997</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>MultiboostAB, RepTree</v>
-          </cell>
-          <cell r="B46">
-            <v>10</v>
-          </cell>
-          <cell r="C46">
-            <v>0.67377296382864604</v>
-          </cell>
-          <cell r="G46">
-            <v>10</v>
-          </cell>
-          <cell r="H46">
-            <v>0.67171934197724004</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>Naive Bayes</v>
-          </cell>
-          <cell r="B47">
-            <v>9</v>
-          </cell>
-          <cell r="C47">
-            <v>0.69108745347202505</v>
-          </cell>
-          <cell r="G47">
-            <v>10</v>
-          </cell>
-          <cell r="H47">
-            <v>0.68173473681809604</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>Rep Tree</v>
-          </cell>
-          <cell r="B48">
-            <v>11</v>
-          </cell>
-          <cell r="C48">
-            <v>0.66742353454789305</v>
-          </cell>
-          <cell r="G48">
-            <v>10</v>
-          </cell>
-          <cell r="H48">
-            <v>0.66386578867135804</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>Conjunctive Rule</v>
-          </cell>
-          <cell r="B49">
-            <v>12</v>
-          </cell>
-          <cell r="C49">
-            <v>0.650194750197579</v>
-          </cell>
-          <cell r="G49">
-            <v>11</v>
-          </cell>
-          <cell r="H49">
-            <v>0.65514173966282996</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>Decorate</v>
-          </cell>
-          <cell r="B50">
-            <v>12</v>
-          </cell>
-          <cell r="C50">
-            <v>0.62559366050127196</v>
-          </cell>
-          <cell r="G50">
-            <v>12</v>
-          </cell>
-          <cell r="H50">
-            <v>0.62296128895176195</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>VFI</v>
-          </cell>
-          <cell r="B51">
-            <v>12</v>
-          </cell>
-          <cell r="C51">
-            <v>0.66163075512041003</v>
-          </cell>
-          <cell r="G51">
-            <v>12</v>
-          </cell>
-          <cell r="H51">
-            <v>0.65339275666812802</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>Random Tree</v>
-          </cell>
-          <cell r="B52">
-            <v>13</v>
-          </cell>
-          <cell r="C52">
-            <v>0.618739866469876</v>
-          </cell>
-          <cell r="G52">
-            <v>13</v>
-          </cell>
-          <cell r="H52">
-            <v>0.61533549953792899</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>Raced Incremental Logit Boost, Decision Stumps</v>
-          </cell>
-          <cell r="B53">
-            <v>14</v>
-          </cell>
-          <cell r="C53">
-            <v>0.59720299537563704</v>
-          </cell>
-          <cell r="G53">
-            <v>14</v>
-          </cell>
-          <cell r="H53">
-            <v>0.59710749270001995</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>OneR</v>
-          </cell>
-          <cell r="B54">
-            <v>15</v>
-          </cell>
-          <cell r="G54">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>Bagging OneR</v>
-          </cell>
-          <cell r="B55">
-            <v>16</v>
-          </cell>
-          <cell r="G55">
-            <v>16</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2446,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2462,6 +2004,7 @@
     <col min="12" max="12" width="18.6640625" style="8" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2492,10 +2035,6 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -2527,15 +2066,7 @@
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -2594,19 +2125,21 @@
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
@@ -2623,35 +2156,39 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="4">
-        <v>0.78717025100000004</v>
+        <v>0.78886294400000001</v>
       </c>
       <c r="I7" s="4">
-        <v>0.17073155200000001</v>
+        <v>0.18232316900000001</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="7" t="str">
-        <f>IF(C7=0,"out",IF(G7&lt;B7,"better without pp",IF(G7=B7,"same","better with pp")))</f>
+        <f>IF($C7=0,"out",IF(N7&lt;0,"better without pp",IF(N7&gt;0,"better with pp","same")))</f>
+        <v>better without pp</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f>IF($C7=0,"out",IF(O7&lt;0,"better without pp",IF(O7&gt;0,"better with pp","same")))</f>
         <v>same</v>
       </c>
-      <c r="L7" s="7" t="str">
-        <f>IF(C7=0,"out",IF(H7&lt;C7,"better without pp",IF(H7=C7,"same","better with pp")))</f>
-        <v>better without pp</v>
-      </c>
       <c r="M7" s="3"/>
-      <c r="N7" s="18">
-        <f t="shared" ref="N7:N38" si="0">C7-H7</f>
-        <v>9.2522429999999378E-3</v>
-      </c>
-      <c r="O7" s="19">
+      <c r="N7" s="7">
+        <f>INDEX($F$7:$H$55,MATCH(A7,F$7:F$55,0),3)-C7</f>
+        <v>-9.2522429999999378E-3</v>
+      </c>
+      <c r="O7" s="7">
+        <f>INDEX($F$7:$H$55,MATCH(A7,F$7:F$55,0),2)-B7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <f>INDEX($F$7:$H$55,MATCH(A7,F$7:F$55,0),2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="4" t="s">
@@ -2668,35 +2205,39 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="4">
         <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>0.78886294400000001</v>
+        <v>0.78717025100000004</v>
       </c>
       <c r="I8" s="4">
-        <v>0.18232316900000001</v>
+        <v>0.17073155200000001</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="7" t="str">
-        <f t="shared" ref="K8:K55" si="1">IF(C8=0,"out",IF(G8&lt;B8,"better without pp",IF(G8=B8,"same","better with pp")))</f>
+        <f t="shared" ref="K8:K55" si="0">IF($C8=0,"out",IF(N8&lt;0,"better without pp",IF(N8&gt;0,"better with pp","same")))</f>
+        <v>better without pp</v>
+      </c>
+      <c r="L8" s="7" t="str">
+        <f t="shared" ref="L8:L55" si="1">IF($C8=0,"out",IF(O8&lt;0,"better without pp",IF(O8&gt;0,"better with pp","same")))</f>
         <v>same</v>
       </c>
-      <c r="L8" s="7" t="str">
-        <f t="shared" ref="L8:L55" si="2">IF(C8=0,"out",IF(H8&lt;C8,"better without pp",IF(H8=C8,"same","better with pp")))</f>
-        <v>better without pp</v>
-      </c>
       <c r="M8" s="3"/>
-      <c r="N8" s="20">
-        <f t="shared" si="0"/>
-        <v>3.9697800000000338E-3</v>
-      </c>
-      <c r="O8" s="21">
+      <c r="N8" s="7">
+        <f t="shared" ref="N8:N55" si="2">INDEX($F$7:$H$55,MATCH(A8,F$7:F$55,0),3)-C8</f>
+        <v>-3.9697800000000338E-3</v>
+      </c>
+      <c r="O8" s="7">
+        <f t="shared" ref="O8:O55" si="3">INDEX($F$7:$H$55,MATCH(A8,F$7:F$55,0),2)-B8</f>
         <v>0</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3">
+        <f t="shared" ref="P8:P55" si="4">INDEX($F$7:$H$55,MATCH(A8,F$7:F$55,0),2)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
@@ -2713,215 +2254,235 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>0.78265917600000001</v>
+        <v>0.78424464900000002</v>
       </c>
       <c r="I9" s="4">
-        <v>0.18590235699999999</v>
+        <v>0.17231396700000001</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better with pp</v>
       </c>
-      <c r="L9" s="7" t="str">
+      <c r="M9" s="3"/>
+      <c r="N9" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="20">
-        <f t="shared" si="0"/>
-        <v>8.1512769999999568E-3</v>
-      </c>
-      <c r="O9" s="21">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3"/>
+        <v>-8.1512769999999568E-3</v>
+      </c>
+      <c r="O9" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>0.78629070499999998</v>
+        <v>0.78766136799999997</v>
       </c>
       <c r="D10" s="4">
-        <v>0.17410941499999999</v>
+        <v>0.16964520399999999</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>0.78132185499999995</v>
+        <v>0.78265917600000001</v>
       </c>
       <c r="I10" s="4">
-        <v>0.17131246999999999</v>
+        <v>0.18590235699999999</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>better with pp</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.8762529999999433E-3</v>
+      </c>
+      <c r="O10" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.78763558199999995</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.18056282300000001</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.78132185499999995</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.17131246999999999</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>better with pp</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="7">
+        <f t="shared" si="2"/>
+        <v>-8.9208399999999299E-3</v>
+      </c>
+      <c r="O11" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.78629070499999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.17410941499999999</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.78078511500000003</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.17086896100000001</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L10" s="7" t="str">
+      <c r="M12" s="3"/>
+      <c r="N12" s="7">
         <f t="shared" si="2"/>
+        <v>-4.9688500000000246E-3</v>
+      </c>
+      <c r="O12" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.78470984099999996</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.17155062800000001</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.779670419</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.17450698000000001</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>better without pp</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="20">
-        <f t="shared" si="0"/>
-        <v>4.9688500000000246E-3</v>
-      </c>
-      <c r="O10" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.78766136799999997</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.16964520399999999</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4">
-        <v>3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.78078511500000003</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.17086896100000001</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="7" t="str">
+      <c r="L13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better with pp</v>
       </c>
-      <c r="L11" s="7" t="str">
+      <c r="M13" s="3"/>
+      <c r="N13" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="20">
-        <f t="shared" si="0"/>
-        <v>6.8762529999999433E-3</v>
-      </c>
-      <c r="O11" s="21">
+        <v>-5.0394219999999601E-3</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.78470984099999996</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.17155062800000001</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="P13" s="3">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="H12" s="4">
-        <v>0.779670419</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.17450698000000001</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>better with pp</v>
-      </c>
-      <c r="L12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="20">
-        <f t="shared" si="0"/>
-        <v>5.0394219999999601E-3</v>
-      </c>
-      <c r="O12" s="21">
-        <v>2</v>
-      </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.78763558199999995</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.18056282300000001</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.77871474200000002</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.18463516499999999</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>better with pp</v>
-      </c>
-      <c r="L13" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="20">
-        <f t="shared" si="0"/>
-        <v>8.9208399999999299E-3</v>
-      </c>
-      <c r="O13" s="21">
-        <v>2</v>
-      </c>
-      <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
@@ -2951,345 +2512,380 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better with pp</v>
       </c>
-      <c r="L14" s="7" t="str">
+      <c r="M14" s="3"/>
+      <c r="N14" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="20">
-        <f t="shared" si="0"/>
-        <v>1.8721200000000326E-3</v>
-      </c>
-      <c r="O14" s="21">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3"/>
+        <v>-1.8721200000000326E-3</v>
+      </c>
+      <c r="O14" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>0.77916694900000005</v>
+        <v>0.77939585600000005</v>
       </c>
       <c r="D15" s="4">
-        <v>0.17757106</v>
+        <v>0.177270292</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>0.78424464900000002</v>
+        <v>0.77871474200000002</v>
       </c>
       <c r="I15" s="4">
-        <v>0.17231396700000001</v>
+        <v>0.18463516499999999</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>better with pp</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.1145040000000233E-3</v>
+      </c>
+      <c r="O15" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.77916694900000005</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.17757106</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.77554552300000001</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.18020072300000001</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L15" s="7" t="str">
+      <c r="N16" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="20">
+        <v>5.0776999999999628E-3</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.77628993700000004</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.18660742399999999</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.77544163799999999</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.16865326</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>-5.0776999999999628E-3</v>
-      </c>
-      <c r="O15" s="21">
-        <v>1</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.77628993700000004</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.18660742399999999</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="9">
-        <v>4</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.77257666899999999</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0.19005677400000001</v>
-      </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="str">
+        <v>better without pp</v>
+      </c>
+      <c r="L17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better with pp</v>
       </c>
-      <c r="L16" s="7" t="str">
+      <c r="M17" s="3"/>
+      <c r="N17" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="0"/>
-        <v>3.7132680000000473E-3</v>
-      </c>
-      <c r="O16" s="21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4">
-        <v>3</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.77939585600000005</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.177270292</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="4">
+        <v>-3.7132680000000473E-3</v>
+      </c>
+      <c r="O17" s="7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H17" s="4">
-        <v>0.77028135200000003</v>
-      </c>
-      <c r="I17" s="4">
-        <v>0.17655739300000001</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>better with pp</v>
-      </c>
-      <c r="L17" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="20">
-        <f t="shared" si="0"/>
-        <v>9.1145040000000233E-3</v>
-      </c>
-      <c r="O17" s="21">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B18" s="4">
         <v>4</v>
       </c>
       <c r="C18" s="4">
-        <v>0.76902249099999997</v>
+        <v>0.77512291899999997</v>
       </c>
       <c r="D18" s="4">
-        <v>0.184819333</v>
+        <v>0.16984440100000001</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="4">
-        <v>0.77554552300000001</v>
+        <v>0.77272711900000002</v>
       </c>
       <c r="I18" s="4">
-        <v>0.18020072300000001</v>
+        <v>0.18669097700000001</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>better without pp</v>
-      </c>
-      <c r="L18" s="7" t="str">
+        <v>same</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="20">
-        <f t="shared" si="0"/>
-        <v>-6.5230320000000397E-3</v>
-      </c>
-      <c r="O18" s="21">
+        <v>3.1871900000002285E-4</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B19" s="4">
         <v>4</v>
       </c>
       <c r="C19" s="4">
-        <v>0.76903104300000003</v>
+        <v>0.77281361699999995</v>
       </c>
       <c r="D19" s="4">
-        <v>0.17680632600000001</v>
+        <v>0.186227956</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="4">
+      <c r="F19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="9">
         <v>4</v>
       </c>
-      <c r="H19" s="4">
-        <v>0.76943746700000004</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0.177931798</v>
+      <c r="H19" s="9">
+        <v>0.77257666899999999</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.19005677400000001</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L19" s="7" t="str">
+      <c r="N19" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="N19" s="20">
-        <f t="shared" si="0"/>
-        <v>-4.0642400000001633E-4</v>
-      </c>
-      <c r="O19" s="21">
+        <v>-2.735818000000001E-3</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
       <c r="C20" s="4">
-        <v>0.77127035399999999</v>
+        <v>0.77264641999999994</v>
       </c>
       <c r="D20" s="4">
-        <v>0.189441262</v>
+        <v>0.177216392</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G20" s="4">
         <v>4</v>
       </c>
       <c r="H20" s="4">
-        <v>0.77272711900000002</v>
+        <v>0.77102969700000001</v>
       </c>
       <c r="I20" s="4">
-        <v>0.18669097700000001</v>
+        <v>0.178000677</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L20" s="7" t="str">
+      <c r="N20" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" si="0"/>
-        <v>-1.4567650000000265E-3</v>
-      </c>
-      <c r="O20" s="21">
-        <v>3</v>
+        <v>-3.1744769999999534E-3</v>
+      </c>
+      <c r="O20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <v>0.77512291899999997</v>
+        <v>0.77127035399999999</v>
       </c>
       <c r="D21" s="4">
-        <v>0.16984440100000001</v>
+        <v>0.189441262</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G21" s="4">
         <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>0.77544163799999999</v>
+        <v>0.77028135200000003</v>
       </c>
       <c r="I21" s="4">
-        <v>0.16865326</v>
+        <v>0.17655739300000001</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L21" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L21" s="7" t="str">
+      <c r="M21" s="3"/>
+      <c r="N21" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="20">
-        <f t="shared" si="0"/>
-        <v>-3.1871900000002285E-4</v>
-      </c>
-      <c r="O21" s="21">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3"/>
+        <v>1.4567650000000265E-3</v>
+      </c>
+      <c r="O21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="4">
         <v>4</v>
       </c>
       <c r="C22" s="4">
-        <v>0.77281361699999995</v>
+        <v>0.76903104300000003</v>
       </c>
       <c r="D22" s="4">
-        <v>0.186227956</v>
+        <v>0.17680632600000001</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
@@ -3306,35 +2902,39 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L22" s="7" t="str">
+      <c r="M22" s="3"/>
+      <c r="N22" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="20">
-        <f t="shared" si="0"/>
-        <v>2.735818000000001E-3</v>
-      </c>
-      <c r="O22" s="21">
+        <v>4.0642400000001633E-4</v>
+      </c>
+      <c r="O22" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P22" s="3"/>
+      <c r="P22" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" s="4">
         <v>4</v>
       </c>
       <c r="C23" s="4">
-        <v>0.77264641999999994</v>
+        <v>0.76902249099999997</v>
       </c>
       <c r="D23" s="4">
-        <v>0.177216392</v>
+        <v>0.184819333</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
@@ -3351,22 +2951,26 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L23" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>same</v>
-      </c>
-      <c r="L23" s="7" t="str">
+        <v>better without pp</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="20">
-        <f t="shared" si="0"/>
-        <v>3.1744769999999534E-3</v>
-      </c>
-      <c r="O23" s="21">
+        <v>6.5230320000000397E-3</v>
+      </c>
+      <c r="O23" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="4" t="s">
@@ -3383,170 +2987,186 @@
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G24" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H24" s="4">
-        <v>0.76529144599999999</v>
+        <v>0.76943746700000004</v>
       </c>
       <c r="I24" s="4">
-        <v>0.171079709</v>
+        <v>0.177931798</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L24" s="7" t="str">
+      <c r="M24" s="3"/>
+      <c r="N24" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M24" s="3"/>
-      <c r="N24" s="20">
-        <f t="shared" si="0"/>
-        <v>2.7333729999999834E-3</v>
-      </c>
-      <c r="O24" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P24" s="3"/>
+        <v>-2.7333729999999834E-3</v>
+      </c>
+      <c r="O24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4">
         <v>6</v>
       </c>
       <c r="C25" s="4">
-        <v>0.76249474299999997</v>
+        <v>0.76477112700000005</v>
       </c>
       <c r="D25" s="4">
-        <v>0.16922783499999999</v>
+        <v>0.18035006200000001</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G25" s="4">
         <v>5</v>
       </c>
       <c r="H25" s="4">
-        <v>0.76121969300000003</v>
+        <v>0.76529144599999999</v>
       </c>
       <c r="I25" s="4">
-        <v>0.162521674</v>
+        <v>0.171079709</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="M25" s="3"/>
+      <c r="N25" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M25" s="3"/>
-      <c r="N25" s="20">
-        <f t="shared" si="0"/>
-        <v>1.2750499999999443E-3</v>
-      </c>
-      <c r="O25" s="21">
+        <v>-6.3840800000003473E-4</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>6</v>
       </c>
       <c r="C26" s="4">
-        <v>0.76247834000000003</v>
+        <v>0.76249474299999997</v>
       </c>
       <c r="D26" s="4">
-        <v>0.182124065</v>
+        <v>0.16922783499999999</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26" s="4">
         <v>5</v>
       </c>
       <c r="H26" s="4">
-        <v>0.76264647399999996</v>
+        <v>0.76413271900000002</v>
       </c>
       <c r="I26" s="4">
-        <v>0.18336960499999999</v>
+        <v>0.17960621900000001</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L26" s="7" t="str">
+      <c r="M26" s="3"/>
+      <c r="N26" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M26" s="3"/>
-      <c r="N26" s="20">
-        <f t="shared" si="0"/>
-        <v>-1.6813399999993095E-4</v>
-      </c>
-      <c r="O26" s="21">
+        <v>-1.2750499999999443E-3</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>6</v>
       </c>
       <c r="C27" s="4">
-        <v>0.76477112700000005</v>
+        <v>0.76247834000000003</v>
       </c>
       <c r="D27" s="4">
-        <v>0.18035006200000001</v>
+        <v>0.182124065</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G27" s="4">
         <v>5</v>
       </c>
       <c r="H27" s="4">
-        <v>0.76413271900000002</v>
+        <v>0.76304318900000001</v>
       </c>
       <c r="I27" s="4">
-        <v>0.17960621900000001</v>
+        <v>0.177599218</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L27" s="7" t="str">
+      <c r="M27" s="3"/>
+      <c r="N27" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M27" s="3"/>
-      <c r="N27" s="20">
-        <f t="shared" si="0"/>
-        <v>6.3840800000003473E-4</v>
-      </c>
-      <c r="O27" s="21">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3"/>
+        <v>1.6813399999993095E-4</v>
+      </c>
+      <c r="O27" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="4" t="s">
@@ -3563,93 +3183,101 @@
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4">
         <v>5</v>
       </c>
       <c r="H28" s="4">
-        <v>0.76304318900000001</v>
+        <v>0.76264647399999996</v>
       </c>
       <c r="I28" s="4">
-        <v>0.177599218</v>
+        <v>0.18336960499999999</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L28" s="7" t="str">
+      <c r="M28" s="3"/>
+      <c r="N28" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M28" s="3"/>
-      <c r="N28" s="20">
-        <f t="shared" si="0"/>
-        <v>-3.8468459999999594E-3</v>
-      </c>
-      <c r="O28" s="21">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3"/>
+        <v>3.8468459999999594E-3</v>
+      </c>
+      <c r="O28" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>7</v>
       </c>
       <c r="C29" s="4">
-        <v>0.75661434900000002</v>
+        <v>0.75907516500000005</v>
       </c>
       <c r="D29" s="4">
-        <v>0.184712512</v>
+        <v>0.182513539</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="4">
-        <v>0.77102969700000001</v>
+        <v>0.76121969300000003</v>
       </c>
       <c r="I29" s="4">
-        <v>0.178000677</v>
+        <v>0.162521674</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L29" s="7" t="str">
+      <c r="M29" s="3"/>
+      <c r="N29" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="20">
-        <f t="shared" si="0"/>
-        <v>-1.4415347999999994E-2</v>
-      </c>
-      <c r="O29" s="21">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3"/>
+        <v>-4.5212330000000689E-3</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4">
         <v>7</v>
       </c>
       <c r="C30" s="4">
-        <v>0.75907516500000005</v>
+        <v>0.75837362799999997</v>
       </c>
       <c r="D30" s="4">
-        <v>0.182513539</v>
+        <v>0.189833639</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
@@ -3666,35 +3294,39 @@
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L30" s="7" t="str">
+      <c r="M30" s="3"/>
+      <c r="N30" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="20">
-        <f t="shared" si="0"/>
-        <v>4.5212330000000689E-3</v>
-      </c>
-      <c r="O30" s="21">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3"/>
+        <v>-5.2342220000000106E-3</v>
+      </c>
+      <c r="O30" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P30" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B31" s="4">
         <v>7</v>
       </c>
       <c r="C31" s="4">
-        <v>0.75837362799999997</v>
+        <v>0.75661434900000002</v>
       </c>
       <c r="D31" s="4">
-        <v>0.189833639</v>
+        <v>0.184712512</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4" t="s">
@@ -3711,67 +3343,75 @@
       </c>
       <c r="J31" s="3"/>
       <c r="K31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L31" s="7" t="str">
+      <c r="M31" s="3"/>
+      <c r="N31" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="20">
-        <f t="shared" si="0"/>
-        <v>5.2342220000000106E-3</v>
-      </c>
-      <c r="O31" s="21">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3"/>
+        <v>1.4415347999999994E-2</v>
+      </c>
+      <c r="O31" s="7">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+      <c r="P31" s="3">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B32" s="4">
         <v>7</v>
       </c>
       <c r="C32" s="4">
-        <v>0.75515822600000004</v>
+        <v>0.75584173300000002</v>
       </c>
       <c r="D32" s="4">
-        <v>0.15737553000000001</v>
+        <v>0.17458470400000001</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" s="4">
-        <v>0.74774527400000002</v>
+        <v>0.75081330800000001</v>
       </c>
       <c r="I32" s="4">
-        <v>0.15779555300000001</v>
+        <v>0.187853767</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L32" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L32" s="7" t="str">
+      <c r="M32" s="3"/>
+      <c r="N32" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M32" s="3"/>
-      <c r="N32" s="20">
-        <f t="shared" si="0"/>
-        <v>7.4129520000000282E-3</v>
-      </c>
-      <c r="O32" s="21">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3"/>
+        <v>-9.2494619999999861E-3</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="4" t="s">
@@ -3788,138 +3428,150 @@
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G33" s="4">
         <v>7</v>
       </c>
       <c r="H33" s="4">
-        <v>0.74422430299999998</v>
+        <v>0.74945552800000004</v>
       </c>
       <c r="I33" s="4">
-        <v>0.20147699899999999</v>
+        <v>0.17003460200000001</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L33" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L33" s="7" t="str">
+      <c r="M33" s="3"/>
+      <c r="N33" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M33" s="3"/>
-      <c r="N33" s="20">
-        <f t="shared" si="0"/>
-        <v>1.1041155000000025E-2</v>
-      </c>
-      <c r="O33" s="21">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3"/>
+        <v>-1.1041155000000025E-2</v>
+      </c>
+      <c r="O33" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>7</v>
       </c>
       <c r="C34" s="4">
-        <v>0.75584173300000002</v>
+        <v>0.75515822600000004</v>
       </c>
       <c r="D34" s="4">
-        <v>0.17458470400000001</v>
+        <v>0.15737553000000001</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G34" s="4">
         <v>7</v>
       </c>
       <c r="H34" s="4">
-        <v>0.74659227100000003</v>
+        <v>0.74774527400000002</v>
       </c>
       <c r="I34" s="4">
-        <v>0.170864448</v>
+        <v>0.15779555300000001</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L34" s="7" t="str">
+      <c r="M34" s="3"/>
+      <c r="N34" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M34" s="3"/>
-      <c r="N34" s="20">
-        <f t="shared" si="0"/>
-        <v>9.2494619999999861E-3</v>
-      </c>
-      <c r="O34" s="21">
+        <v>-7.4129520000000282E-3</v>
+      </c>
+      <c r="O34" s="7">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P34" s="3"/>
+      <c r="P34" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4">
         <v>8</v>
       </c>
       <c r="C35" s="4">
-        <v>0.748333515</v>
+        <v>0.74995069599999997</v>
       </c>
       <c r="D35" s="4">
-        <v>0.19654474299999999</v>
+        <v>0.170533925</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G35" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H35" s="4">
-        <v>0.75081330800000001</v>
+        <v>0.74659227100000003</v>
       </c>
       <c r="I35" s="4">
-        <v>0.187853767</v>
+        <v>0.170864448</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L35" s="7" t="str">
+      <c r="M35" s="3"/>
+      <c r="N35" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M35" s="3"/>
-      <c r="N35" s="20">
-        <f t="shared" si="0"/>
-        <v>-2.4797930000000079E-3</v>
-      </c>
-      <c r="O35" s="21">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3"/>
+        <v>-4.9516799999993477E-4</v>
+      </c>
+      <c r="O35" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4">
         <v>8</v>
       </c>
       <c r="C36" s="4">
-        <v>0.74639703899999998</v>
+        <v>0.74935739099999998</v>
       </c>
       <c r="D36" s="4">
-        <v>0.182818183</v>
+        <v>0.16573800599999999</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
@@ -3936,215 +3588,235 @@
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>same</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="7">
+        <f t="shared" si="2"/>
+        <v>-9.8916350000000097E-3</v>
+      </c>
+      <c r="O36" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="4">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.748333515</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.19654474299999999</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="4">
+        <v>7</v>
+      </c>
+      <c r="H37" s="4">
+        <v>0.74422430299999998</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0.20147699899999999</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L36" s="7" t="str">
+      <c r="M37" s="3"/>
+      <c r="N37" s="7">
         <f t="shared" si="2"/>
+        <v>2.4797930000000079E-3</v>
+      </c>
+      <c r="O37" s="7">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.74639703899999998</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.182818183</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="4">
+        <v>7</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.74312349700000002</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.19012309799999999</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>better without pp</v>
       </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="20">
-        <f t="shared" si="0"/>
-        <v>1.4756799999993131E-4</v>
-      </c>
-      <c r="O36" s="21">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3"/>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>8</v>
-      </c>
-      <c r="C37" s="4">
-        <v>0.74995069599999997</v>
-      </c>
-      <c r="D37" s="4">
-        <v>0.170533925</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G37" s="4">
-        <v>7</v>
-      </c>
-      <c r="H37" s="4">
-        <v>0.74945552800000004</v>
-      </c>
-      <c r="I37" s="4">
-        <v>0.17003460200000001</v>
-      </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="7" t="str">
+      <c r="L38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L37" s="7" t="str">
+      <c r="M38" s="3"/>
+      <c r="N38" s="7">
         <f t="shared" si="2"/>
+        <v>-1.4756799999993131E-4</v>
+      </c>
+      <c r="O38" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.74569632200000002</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.18226441800000001</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="4">
+        <v>7</v>
+      </c>
+      <c r="H39" s="4">
+        <v>0.74296378500000004</v>
+      </c>
+      <c r="I39" s="4">
+        <v>0.18174064500000001</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="7" t="str">
+        <f t="shared" si="0"/>
         <v>better without pp</v>
       </c>
-      <c r="M37" s="3"/>
-      <c r="N37" s="20">
-        <f t="shared" si="0"/>
-        <v>4.9516799999993477E-4</v>
-      </c>
-      <c r="O37" s="21">
-        <v>0</v>
-      </c>
-      <c r="P37" s="3"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0.74569632200000002</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.18226441800000001</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="4">
-        <v>7</v>
-      </c>
-      <c r="H38" s="4">
-        <v>0.74296378500000004</v>
-      </c>
-      <c r="I38" s="4">
-        <v>0.18174064500000001</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="7" t="str">
+      <c r="L39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L38" s="7" t="str">
+      <c r="M39" s="3"/>
+      <c r="N39" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="20">
+        <v>-2.7325369999999793E-3</v>
+      </c>
+      <c r="O39" s="7">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P39" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.74085163200000004</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.19425394000000001</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G40" s="4">
+        <v>7</v>
+      </c>
+      <c r="H40" s="4">
+        <v>0.74135458499999995</v>
+      </c>
+      <c r="I40" s="4">
+        <v>0.19275167000000001</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>2.7325369999999793E-3</v>
-      </c>
-      <c r="O38" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="4">
-        <v>8</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0.74085163200000004</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.19425394000000001</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="4">
-        <v>7</v>
-      </c>
-      <c r="H39" s="4">
-        <v>0.74135458499999995</v>
-      </c>
-      <c r="I39" s="4">
-        <v>0.19275167000000001</v>
-      </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="7" t="str">
+        <v>better with pp</v>
+      </c>
+      <c r="L40" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L39" s="7" t="str">
+      <c r="M40" s="3"/>
+      <c r="N40" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="20">
-        <f t="shared" ref="N39:N55" si="3">C39-H39</f>
-        <v>-5.0295299999991716E-4</v>
-      </c>
-      <c r="O39" s="21">
-        <v>1</v>
-      </c>
-      <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="4">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0.73867998599999996</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0.18991672900000001</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="4">
-        <v>8</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.730323155</v>
-      </c>
-      <c r="I40" s="4">
-        <v>0.198786459</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>same</v>
-      </c>
-      <c r="L40" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M40" s="3"/>
-      <c r="N40" s="20">
+        <v>5.0295299999991716E-4</v>
+      </c>
+      <c r="O40" s="7">
         <f t="shared" si="3"/>
-        <v>8.3568309999999535E-3</v>
-      </c>
-      <c r="O40" s="21">
-        <v>1</v>
-      </c>
-      <c r="P40" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P40" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
       </c>
       <c r="C41" s="4">
-        <v>0.74935739099999998</v>
+        <v>0.73867998599999996</v>
       </c>
       <c r="D41" s="4">
-        <v>0.16573800599999999</v>
+        <v>0.18991672900000001</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
@@ -4161,112 +3833,124 @@
       </c>
       <c r="J41" s="3"/>
       <c r="K41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>same</v>
       </c>
-      <c r="L41" s="7" t="str">
+      <c r="M41" s="3"/>
+      <c r="N41" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M41" s="3"/>
-      <c r="N41" s="20">
+        <v>-8.3568309999999535E-3</v>
+      </c>
+      <c r="O41" s="7">
         <f t="shared" si="3"/>
-        <v>9.8916350000000097E-3</v>
-      </c>
-      <c r="O41" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P41" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4">
         <v>9</v>
       </c>
       <c r="C42" s="4">
-        <v>0.73721981000000003</v>
+        <v>0.737992757</v>
       </c>
       <c r="D42" s="4">
-        <v>0.193467797</v>
+        <v>0.192225645</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G42" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" s="4">
-        <v>0.74312349700000002</v>
+        <v>0.73579813900000002</v>
       </c>
       <c r="I42" s="4">
-        <v>0.19012309799999999</v>
+        <v>0.19224698100000001</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L42" s="7" t="str">
+      <c r="M42" s="3"/>
+      <c r="N42" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M42" s="3"/>
-      <c r="N42" s="20">
+        <v>-2.1946179999999815E-3</v>
+      </c>
+      <c r="O42" s="7">
         <f t="shared" si="3"/>
-        <v>-5.9036869999999908E-3</v>
-      </c>
-      <c r="O42" s="21">
         <v>-1</v>
       </c>
-      <c r="P42" s="3"/>
+      <c r="P42" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B43" s="4">
         <v>9</v>
       </c>
       <c r="C43" s="4">
-        <v>0.737992757</v>
+        <v>0.73721981000000003</v>
       </c>
       <c r="D43" s="4">
-        <v>0.192225645</v>
+        <v>0.193467797</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G43" s="4">
         <v>8</v>
       </c>
       <c r="H43" s="4">
-        <v>0.73579813900000002</v>
+        <v>0.730323155</v>
       </c>
       <c r="I43" s="4">
-        <v>0.19224698100000001</v>
+        <v>0.198786459</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L43" s="7" t="str">
+      <c r="M43" s="10"/>
+      <c r="N43" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M43" s="10"/>
-      <c r="N43" s="20">
+        <v>5.9036869999999908E-3</v>
+      </c>
+      <c r="O43" s="7">
         <f t="shared" si="3"/>
-        <v>2.1946179999999815E-3</v>
-      </c>
-      <c r="O43" s="21">
         <v>-2</v>
       </c>
-      <c r="P43" s="10"/>
+      <c r="P43" s="3">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="4" t="s">
@@ -4296,22 +3980,26 @@
       </c>
       <c r="J44" s="3"/>
       <c r="K44" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L44" s="7" t="str">
+      <c r="M44" s="10"/>
+      <c r="N44" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M44" s="10"/>
-      <c r="N44" s="20">
+        <v>-5.4082650000000232E-3</v>
+      </c>
+      <c r="O44" s="7">
         <f t="shared" si="3"/>
-        <v>5.4082650000000232E-3</v>
-      </c>
-      <c r="O44" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P44" s="10"/>
+        <v>-2</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="4" t="s">
@@ -4341,22 +4029,26 @@
       </c>
       <c r="J45" s="3"/>
       <c r="K45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L45" s="7" t="str">
+      <c r="M45" s="10"/>
+      <c r="N45" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M45" s="10"/>
-      <c r="N45" s="20">
+        <v>-6.8786570000000102E-3</v>
+      </c>
+      <c r="O45" s="7">
         <f t="shared" si="3"/>
-        <v>6.8786570000000102E-3</v>
-      </c>
-      <c r="O45" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P45" s="10"/>
+        <v>-2</v>
+      </c>
+      <c r="P45" s="3">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="4" t="s">
@@ -4373,35 +4065,39 @@
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G46" s="4">
         <v>10</v>
       </c>
       <c r="H46" s="4">
-        <v>0.71524658799999996</v>
+        <v>0.71885734599999995</v>
       </c>
       <c r="I46" s="4">
-        <v>0.22138511299999999</v>
+        <v>0.17636259500000001</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L46" s="7" t="str">
+      <c r="M46" s="3"/>
+      <c r="N46" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M46" s="3"/>
-      <c r="N46" s="20">
+        <v>-1.5108736000000067E-2</v>
+      </c>
+      <c r="O46" s="7">
         <f t="shared" si="3"/>
-        <v>1.5108736000000067E-2</v>
-      </c>
-      <c r="O46" s="21">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="4" t="s">
@@ -4418,35 +4114,39 @@
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G47" s="4">
         <v>10</v>
       </c>
       <c r="H47" s="4">
-        <v>0.71885734599999995</v>
+        <v>0.71524658799999996</v>
       </c>
       <c r="I47" s="4">
-        <v>0.17636259500000001</v>
+        <v>0.22138511299999999</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L47" s="7" t="str">
+      <c r="M47" s="3"/>
+      <c r="N47" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M47" s="3"/>
-      <c r="N47" s="20">
+        <v>-8.3392200000000916E-3</v>
+      </c>
+      <c r="O47" s="7">
         <f t="shared" si="3"/>
-        <v>8.3392200000000916E-3</v>
-      </c>
-      <c r="O47" s="21">
-        <v>1</v>
-      </c>
-      <c r="P47" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="4" t="s">
@@ -4476,22 +4176,26 @@
       </c>
       <c r="J48" s="3"/>
       <c r="K48" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L48" s="7" t="str">
+      <c r="M48" s="3"/>
+      <c r="N48" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="20">
+        <v>-5.8826390000000783E-3</v>
+      </c>
+      <c r="O48" s="7">
         <f t="shared" si="3"/>
-        <v>5.8826390000000783E-3</v>
-      </c>
-      <c r="O48" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P48" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="9" t="s">
@@ -4506,7 +4210,7 @@
       <c r="D49" s="9">
         <v>0.18573909999999999</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="4"/>
       <c r="F49" s="9" t="s">
         <v>48</v>
       </c>
@@ -4519,24 +4223,28 @@
       <c r="I49" s="9">
         <v>0.18694190999999999</v>
       </c>
-      <c r="J49" s="10"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L49" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L49" s="7" t="str">
+      <c r="M49" s="3"/>
+      <c r="N49" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M49" s="3"/>
-      <c r="N49" s="20">
+        <v>-4.2437960000000219E-3</v>
+      </c>
+      <c r="O49" s="7">
         <f t="shared" si="3"/>
-        <v>4.2437960000000219E-3</v>
-      </c>
-      <c r="O49" s="21">
-        <v>-1</v>
-      </c>
-      <c r="P49" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P49" s="3">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="4" t="s">
@@ -4566,67 +4274,75 @@
       </c>
       <c r="J50" s="3"/>
       <c r="K50" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L50" s="7" t="str">
+      <c r="M50" s="3"/>
+      <c r="N50" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="20">
+        <v>-6.6248449999999348E-3</v>
+      </c>
+      <c r="O50" s="7">
         <f t="shared" si="3"/>
-        <v>6.6248449999999348E-3</v>
-      </c>
-      <c r="O50" s="21">
-        <v>0</v>
-      </c>
-      <c r="P50" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P50" s="3">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4">
         <v>15</v>
       </c>
       <c r="C51" s="4">
-        <v>0.601304799</v>
+        <v>0.64799564899999995</v>
       </c>
       <c r="D51" s="4">
-        <v>0.34626671599999997</v>
+        <v>0.22976828199999999</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G51" s="4">
         <v>13</v>
       </c>
       <c r="H51" s="4">
-        <v>0.60571375999999999</v>
+        <v>0.64737736499999998</v>
       </c>
       <c r="I51" s="4">
-        <v>0.34695578900000001</v>
+        <v>0.22928100300000001</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better without pp</v>
+      </c>
+      <c r="L51" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L51" s="7" t="str">
+      <c r="M51" s="3"/>
+      <c r="N51" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M51" s="3"/>
-      <c r="N51" s="20">
+        <v>-6.1828399999996897E-4</v>
+      </c>
+      <c r="O51" s="7">
         <f t="shared" si="3"/>
-        <v>-4.408960999999989E-3</v>
-      </c>
-      <c r="O51" s="21">
-        <v>0</v>
-      </c>
-      <c r="P51" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P51" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="4" t="s">
@@ -4656,67 +4372,75 @@
       </c>
       <c r="J52" s="3"/>
       <c r="K52" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L52" s="7" t="str">
+      <c r="M52" s="3"/>
+      <c r="N52" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M52" s="3"/>
-      <c r="N52" s="20">
+        <v>5.6597000000047082E-5</v>
+      </c>
+      <c r="O52" s="7">
         <f t="shared" si="3"/>
-        <v>-5.6597000000047082E-5</v>
-      </c>
-      <c r="O52" s="21">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B53" s="4">
         <v>15</v>
       </c>
       <c r="C53" s="4">
-        <v>0.64799564899999995</v>
+        <v>0.601304799</v>
       </c>
       <c r="D53" s="4">
-        <v>0.22976828199999999</v>
+        <v>0.34626671599999997</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G53" s="4">
         <v>13</v>
       </c>
       <c r="H53" s="4">
-        <v>0.64737736499999998</v>
+        <v>0.60571375999999999</v>
       </c>
       <c r="I53" s="4">
-        <v>0.22928100300000001</v>
+        <v>0.34695578900000001</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L53" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L53" s="7" t="str">
+      <c r="M53" s="3"/>
+      <c r="N53" s="7">
         <f t="shared" si="2"/>
-        <v>better without pp</v>
-      </c>
-      <c r="M53" s="3"/>
-      <c r="N53" s="20">
+        <v>4.408960999999989E-3</v>
+      </c>
+      <c r="O53" s="7">
         <f t="shared" si="3"/>
-        <v>6.1828399999996897E-4</v>
-      </c>
-      <c r="O53" s="21">
-        <v>0</v>
-      </c>
-      <c r="P53" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="4" t="s">
@@ -4746,22 +4470,26 @@
       </c>
       <c r="J54" s="3"/>
       <c r="K54" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L54" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L54" s="7" t="str">
+      <c r="M54" s="3"/>
+      <c r="N54" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="M54" s="3"/>
-      <c r="N54" s="20">
+        <v>7.1138199999998264E-4</v>
+      </c>
+      <c r="O54" s="7">
         <f t="shared" si="3"/>
-        <v>-7.1138199999998264E-4</v>
-      </c>
-      <c r="O54" s="21">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3"/>
+        <v>-2</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="4" t="s">
@@ -4791,19 +4519,24 @@
       </c>
       <c r="J55" s="3"/>
       <c r="K55" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>better with pp</v>
+      </c>
+      <c r="L55" s="7" t="str">
         <f t="shared" si="1"/>
         <v>better without pp</v>
       </c>
-      <c r="L55" s="7" t="str">
+      <c r="N55" s="7">
         <f t="shared" si="2"/>
-        <v>better with pp</v>
-      </c>
-      <c r="N55" s="22">
+        <v>1.168699000000023E-3</v>
+      </c>
+      <c r="O55" s="7">
         <f t="shared" si="3"/>
-        <v>-1.168699000000023E-3</v>
-      </c>
-      <c r="O55" s="23">
-        <v>0</v>
+        <v>-2</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4813,11 +4546,11 @@
       </c>
       <c r="C56" s="6">
         <f>AVERAGE(C7:C55)</f>
-        <v>0.72808175116326523</v>
+        <v>0.72808175116326512</v>
       </c>
       <c r="D56" s="6">
         <f>AVERAGE(D7:D55)</f>
-        <v>0.19307409328571432</v>
+        <v>0.19307409328571426</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -4830,7 +4563,7 @@
       </c>
       <c r="I56" s="6">
         <f>AVERAGE(I7:I55)</f>
-        <v>0.19387250622448984</v>
+        <v>0.19387250622448979</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56" s="11"/>
@@ -4840,85 +4573,104 @@
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="N57" s="8">
         <f>AVERAGEIF(N7:N55,"&gt;0")</f>
-        <v>5.494632529411762E-3</v>
+        <v>3.1630026666666605E-3</v>
+      </c>
+      <c r="O57" s="8">
+        <f>AVERAGEIF(O7:O55,"&gt;0")</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="K58" s="12"/>
       <c r="L58" s="12"/>
       <c r="M58" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N58" s="8">
         <f>AVERAGEIF(N7:N55,"&lt;0")</f>
-        <v>-3.1630026666666605E-3</v>
+        <v>-5.494632529411762E-3</v>
+      </c>
+      <c r="O58" s="8">
+        <f>AVERAGEIF(O7:O55,"&lt;0")</f>
+        <v>-1.5357142857142858</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="14"/>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E59" s="25"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="19"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
+      <c r="M59" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N59" s="24">
+        <f>AVERAGE(N7:N55)</f>
+        <v>-2.8443360408163267E-3</v>
+      </c>
+      <c r="O59" s="24">
+        <f>AVERAGE(O7:O55)</f>
+        <v>-0.73469387755102045</v>
+      </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="27">
+        <v>62</v>
+      </c>
+      <c r="B60" s="21">
         <f>COUNTIF($K$7:$K$55,$A60)</f>
+        <v>0</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="21">
+        <f>COUNTIF($L$7:$L$55,$A60)</f>
         <v>14</v>
       </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="27">
-        <f>COUNTIF($L$7:$L$55,$A60)</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="28"/>
+      <c r="E60" s="22"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="27">
+        <v>63</v>
+      </c>
+      <c r="B61" s="21">
         <f>COUNTIF($K$7:$K$55,$A61)</f>
+        <v>15</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="21">
+        <f>COUNTIF($L$7:$L$55,$A61)</f>
         <v>7</v>
       </c>
-      <c r="C61" s="28"/>
-      <c r="D61" s="27">
-        <f>COUNTIF($L$7:$L$55,$A61)</f>
-        <v>15</v>
-      </c>
-      <c r="E61" s="28"/>
+      <c r="E61" s="22"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="27">
+        <v>64</v>
+      </c>
+      <c r="B62" s="21">
         <f>COUNTIF($K$7:$K$55,$A62)</f>
+        <v>34</v>
+      </c>
+      <c r="C62" s="22"/>
+      <c r="D62" s="21">
+        <f>COUNTIF($L$7:$L$55,$A62)</f>
         <v>28</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="27">
-        <f>COUNTIF($L$7:$L$55,$A62)</f>
-        <v>34</v>
-      </c>
-      <c r="E62" s="28"/>
+      <c r="E62" s="22"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
@@ -17677,6 +17429,7 @@
     <mergeCell ref="D62:E62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/results/comparisons/missing-values-impact/mv-4Folds.xlsx
+++ b/results/comparisons/missing-values-impact/mv-4Folds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22200" tabRatio="500"/>
+    <workbookView xWindow="19900" yWindow="0" windowWidth="18500" windowHeight="22200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -738,6 +738,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,8 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="269">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1061,7 +1061,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1390,7 +1390,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1565,11 +1565,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105185144"/>
-        <c:axId val="2105188120"/>
+        <c:axId val="2115703720"/>
+        <c:axId val="2115427752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105185144"/>
+        <c:axId val="2115703720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1578,7 +1578,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105188120"/>
+        <c:crossAx val="2115427752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1586,7 +1586,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105188120"/>
+        <c:axId val="2115427752"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="1.0"/>
@@ -1598,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105185144"/>
+        <c:crossAx val="2115703720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1609,13 +1609,23 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.740361923995558"/>
-          <c:y val="0.443880455242061"/>
-          <c:w val="0.258169632040827"/>
+          <c:x val="0.0498171161154763"/>
+          <c:y val="0.893672356613665"/>
+          <c:w val="0.626692698869633"/>
           <c:h val="0.0974614190676505"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1634,13 +1644,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>464458</xdr:colOff>
+      <xdr:colOff>25401</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>145143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>780143</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
@@ -1988,8 +1998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q3247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4601,24 +4611,24 @@
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="14"/>
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20" t="s">
+      <c r="C59" s="21"/>
+      <c r="D59" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="21"/>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="23" t="s">
+      <c r="M59" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="N59" s="24">
+      <c r="N59" s="19">
         <f>AVERAGE(N7:N55)</f>
         <v>-2.8443360408163267E-3</v>
       </c>
-      <c r="O59" s="24">
+      <c r="O59" s="19">
         <f>AVERAGE(O7:O55)</f>
         <v>-0.73469387755102045</v>
       </c>
@@ -4627,16 +4637,16 @@
       <c r="A60" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="23">
         <f>COUNTIF($K$7:$K$55,$A60)</f>
         <v>0</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="21">
+      <c r="C60" s="24"/>
+      <c r="D60" s="23">
         <f>COUNTIF($L$7:$L$55,$A60)</f>
         <v>14</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="24"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
@@ -4644,16 +4654,16 @@
       <c r="A61" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="23">
         <f>COUNTIF($K$7:$K$55,$A61)</f>
         <v>15</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="21">
+      <c r="C61" s="24"/>
+      <c r="D61" s="23">
         <f>COUNTIF($L$7:$L$55,$A61)</f>
         <v>7</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="24"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
     </row>
@@ -4661,16 +4671,16 @@
       <c r="A62" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="23">
         <f>COUNTIF($K$7:$K$55,$A62)</f>
         <v>34</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="21">
+      <c r="C62" s="24"/>
+      <c r="D62" s="23">
         <f>COUNTIF($L$7:$L$55,$A62)</f>
         <v>28</v>
       </c>
-      <c r="E62" s="22"/>
+      <c r="E62" s="24"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
@@ -17429,7 +17439,6 @@
     <mergeCell ref="D62:E62"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
